--- a/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.5558200294329</v>
+        <v>21.55582002943293</v>
       </c>
       <c r="C2">
-        <v>28.43018931641255</v>
+        <v>28.43018931641249</v>
       </c>
       <c r="D2">
-        <v>7.397002878313984</v>
+        <v>7.397002878313883</v>
       </c>
       <c r="E2">
-        <v>30.63868643724797</v>
+        <v>30.63868643724786</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.83815847205616</v>
+        <v>64.83815847205582</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>23.17064224499561</v>
+        <v>23.17064224499557</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74649590828972</v>
+        <v>19.74649590828974</v>
       </c>
       <c r="C3">
-        <v>26.17899216291566</v>
+        <v>26.17899216291571</v>
       </c>
       <c r="D3">
-        <v>6.823366357827856</v>
+        <v>6.823366357827854</v>
       </c>
       <c r="E3">
-        <v>28.13387706451775</v>
+        <v>28.13387706451763</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.43941116226276</v>
+        <v>60.43941116226284</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>21.28783827226928</v>
+        <v>21.28783827226927</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.61283042567641</v>
+        <v>18.6128304256764</v>
       </c>
       <c r="C4">
-        <v>24.75938542848224</v>
+        <v>24.75938542848196</v>
       </c>
       <c r="D4">
-        <v>6.460000383600387</v>
+        <v>6.460000383600359</v>
       </c>
       <c r="E4">
-        <v>26.56394817507926</v>
+        <v>26.56394817507922</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.67919068670806</v>
+        <v>57.67919068670786</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>20.1033389991721</v>
+        <v>20.103338999172</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.14393980629254</v>
+        <v>18.14393980629249</v>
       </c>
       <c r="C5">
-        <v>24.17029330918731</v>
+        <v>24.17029330918728</v>
       </c>
       <c r="D5">
-        <v>6.308834869338704</v>
+        <v>6.308834869338646</v>
       </c>
       <c r="E5">
-        <v>25.91433698829884</v>
+        <v>25.91433698829879</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.53786717305043</v>
+        <v>56.53786717305023</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>19.61232763345762</v>
+        <v>19.6123276334576</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.06563264873697</v>
+        <v>18.06563264873705</v>
       </c>
       <c r="C6">
-        <v>24.07180492724875</v>
+        <v>24.07180492724882</v>
       </c>
       <c r="D6">
-        <v>6.283539795458982</v>
+        <v>6.283539795458879</v>
       </c>
       <c r="E6">
-        <v>25.80582790634502</v>
+        <v>25.80582790634496</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.34731739628857</v>
+        <v>56.34731739628853</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>19.53026309347936</v>
+        <v>19.53026309347948</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.60653620843617</v>
+        <v>18.60653620843637</v>
       </c>
       <c r="C7">
-        <v>24.75148501333234</v>
+        <v>24.75148501333246</v>
       </c>
       <c r="D7">
-        <v>6.457974571384756</v>
+        <v>6.457974571384825</v>
       </c>
       <c r="E7">
-        <v>26.55522933050187</v>
+        <v>26.55522933050197</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.66386697427001</v>
+        <v>57.66386697427082</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>20.09675211379572</v>
+        <v>20.09675211379592</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.93588467638236</v>
+        <v>20.9358846763825</v>
       </c>
       <c r="C8">
-        <v>27.66092831669329</v>
+        <v>27.66092831669339</v>
       </c>
       <c r="D8">
-        <v>7.20133757641655</v>
+        <v>7.201337576416527</v>
       </c>
       <c r="E8">
-        <v>29.78044976197911</v>
+        <v>29.78044976197912</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.33267061205089</v>
+        <v>63.33267061205141</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>22.52658182450634</v>
+        <v>22.5265818245064</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,13 +681,13 @@
         <v>25.39391642472025</v>
       </c>
       <c r="C9">
-        <v>33.14124966748408</v>
+        <v>33.1412496674839</v>
       </c>
       <c r="D9">
-        <v>8.587149915244328</v>
+        <v>8.587149915244392</v>
       </c>
       <c r="E9">
-        <v>35.95929781268027</v>
+        <v>35.95929781268023</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>74.08384359971166</v>
+        <v>74.0838435997116</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>27.13387911400545</v>
+        <v>27.13387911400542</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.74193230791991</v>
+        <v>28.7419323079199</v>
       </c>
       <c r="C10">
-        <v>37.17272589358866</v>
+        <v>37.1727258935885</v>
       </c>
       <c r="D10">
-        <v>9.593552374464235</v>
+        <v>9.593552374464338</v>
       </c>
       <c r="E10">
-        <v>40.62733720935349</v>
+        <v>40.62733720935346</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>81.98512255481795</v>
+        <v>81.98512255481756</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>30.55700298246081</v>
+        <v>30.55700298246082</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.33261411160871</v>
+        <v>30.33261411160882</v>
       </c>
       <c r="C11">
-        <v>39.0609159649671</v>
+        <v>39.06091596496713</v>
       </c>
       <c r="D11">
-        <v>10.0604873344828</v>
+        <v>10.06048733448277</v>
       </c>
       <c r="E11">
-        <v>42.86185017339673</v>
+        <v>42.86185017339677</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>85.66710339462431</v>
+        <v>85.6671033946249</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>32.17220002760097</v>
+        <v>32.17220002760099</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.95190355403813</v>
+        <v>30.95190355403843</v>
       </c>
       <c r="C12">
-        <v>39.79113285406397</v>
+        <v>39.79113285406432</v>
       </c>
       <c r="D12">
-        <v>10.24021202120499</v>
+        <v>10.24021202120497</v>
       </c>
       <c r="E12">
-        <v>43.73584942952045</v>
+        <v>43.73584942952063</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>87.08619305182253</v>
+        <v>87.0861930518229</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>32.79908287826475</v>
+        <v>32.79908287826502</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.81761808716108</v>
+        <v>30.81761808716076</v>
       </c>
       <c r="C13">
-        <v>39.63302975167552</v>
+        <v>39.63302975167541</v>
       </c>
       <c r="D13">
-        <v>10.20134124232599</v>
+        <v>10.20134124232598</v>
       </c>
       <c r="E13">
-        <v>43.54611630581542</v>
+        <v>43.54611630581513</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>86.77919712862852</v>
+        <v>86.77919712862834</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>32.66324375152789</v>
+        <v>32.66324375152762</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.3831690125685</v>
+        <v>30.3831690125682</v>
       </c>
       <c r="C14">
-        <v>39.12063009550437</v>
+        <v>39.12063009550435</v>
       </c>
       <c r="D14">
-        <v>10.07520303032381</v>
+        <v>10.07520303032371</v>
       </c>
       <c r="E14">
-        <v>42.93310458022597</v>
+        <v>42.93310458022583</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>85.7832623999569</v>
+        <v>85.78326239995643</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>32.22341580845934</v>
+        <v>32.22341580845916</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.11953948084141</v>
+        <v>30.11953948084149</v>
       </c>
       <c r="C15">
-        <v>38.80903580120613</v>
+        <v>38.80903580120621</v>
       </c>
       <c r="D15">
-        <v>9.998379425375493</v>
+        <v>9.998379425375456</v>
       </c>
       <c r="E15">
-        <v>42.56170686940186</v>
+        <v>42.56170686940187</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>85.17692457526265</v>
+        <v>85.17692457526368</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>31.95625987991847</v>
+        <v>31.95625987991852</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.63987631272656</v>
+        <v>28.63987631272683</v>
       </c>
       <c r="C16">
-        <v>37.05097149509416</v>
+        <v>37.05097149509459</v>
       </c>
       <c r="D16">
-        <v>9.563340009372762</v>
+        <v>9.563340009372832</v>
       </c>
       <c r="E16">
-        <v>40.48441892069835</v>
+        <v>40.48441892069843</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>81.74716982662986</v>
+        <v>81.7471698266307</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>30.45312805496123</v>
+        <v>30.45312805496151</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.75359113680338</v>
+        <v>27.7535911368035</v>
       </c>
       <c r="C17">
-        <v>35.99057009497513</v>
+        <v>35.99057009497565</v>
       </c>
       <c r="D17">
         <v>9.299708963345161</v>
       </c>
       <c r="E17">
-        <v>39.24519125181838</v>
+        <v>39.24519125181855</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>79.67253160825372</v>
+        <v>79.67253160825467</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>29.5498006364171</v>
+        <v>29.54980063641733</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.24961815404648</v>
+        <v>27.24961815404662</v>
       </c>
       <c r="C18">
-        <v>35.38517263711402</v>
+        <v>35.38517263711425</v>
       </c>
       <c r="D18">
-        <v>9.148807285983816</v>
+        <v>9.148807285983755</v>
       </c>
       <c r="E18">
-        <v>38.54191472407305</v>
+        <v>38.54191472407314</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>78.48653114577789</v>
+        <v>78.4865311457785</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>29.03514102375978</v>
+        <v>29.03514102375995</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.07981014760077</v>
+        <v>27.07981014760092</v>
       </c>
       <c r="C19">
-        <v>35.18080039584726</v>
+        <v>35.18080039584729</v>
       </c>
       <c r="D19">
         <v>9.097803079707397</v>
       </c>
       <c r="E19">
-        <v>38.30515787195183</v>
+        <v>38.30515787195194</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>78.08593970042678</v>
+        <v>78.0859397004275</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>28.86156982897351</v>
+        <v>28.86156982897356</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.84729666045939</v>
+        <v>27.84729666045943</v>
       </c>
       <c r="C20">
-        <v>36.10294173410855</v>
+        <v>36.10294173410865</v>
       </c>
       <c r="D20">
-        <v>9.327687978322937</v>
+        <v>9.327687978322967</v>
       </c>
       <c r="E20">
-        <v>39.37605940147539</v>
+        <v>39.37605940147542</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>79.89255741207273</v>
+        <v>79.89255741207292</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>29.64541360467772</v>
+        <v>29.64541360467778</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.51024104763828</v>
+        <v>30.51024104763855</v>
       </c>
       <c r="C21">
-        <v>39.27064295350635</v>
+        <v>39.27064295350644</v>
       </c>
       <c r="D21">
-        <v>10.11215713970238</v>
+        <v>10.11215713970233</v>
       </c>
       <c r="E21">
-        <v>43.11227722949627</v>
+        <v>43.11227722949646</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>86.07498959837318</v>
+        <v>86.074989598374</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>32.35211680901573</v>
+        <v>32.35211680901596</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.35609067018089</v>
+        <v>32.35609067018078</v>
       </c>
       <c r="C22">
         <v>41.43648494145708</v>
       </c>
       <c r="D22">
-        <v>10.64327050587258</v>
+        <v>10.64327050587251</v>
       </c>
       <c r="E22">
-        <v>45.72791170478384</v>
+        <v>45.72791170478377</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>90.28232153734879</v>
+        <v>90.28232153734798</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>34.21643594178549</v>
+        <v>34.21643594178544</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.35772447320161</v>
+        <v>31.35772447320187</v>
       </c>
       <c r="C23">
-        <v>40.26813555654008</v>
+        <v>40.26813555654007</v>
       </c>
       <c r="D23">
-        <v>10.35734100234379</v>
+        <v>10.35734100234376</v>
       </c>
       <c r="E23">
-        <v>44.31001100470834</v>
+        <v>44.31001100470846</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>88.01149410340655</v>
+        <v>88.01149410340662</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>33.20928649591426</v>
+        <v>33.2092864959144</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.80491554539528</v>
+        <v>27.80491554539525</v>
       </c>
       <c r="C24">
-        <v>36.0521258009862</v>
+        <v>36.05212580098606</v>
       </c>
       <c r="D24">
-        <v>9.315036706977363</v>
+        <v>9.315036706977315</v>
       </c>
       <c r="E24">
-        <v>39.31686613240107</v>
+        <v>39.3168661324012</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>79.79306358158495</v>
+        <v>79.79306358158459</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>29.60217288203201</v>
+        <v>29.60217288203194</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.18796284467999</v>
+        <v>24.18796284468014</v>
       </c>
       <c r="C25">
-        <v>31.67089656650442</v>
+        <v>31.6708965665045</v>
       </c>
       <c r="D25">
-        <v>8.217233427054357</v>
+        <v>8.217233427054344</v>
       </c>
       <c r="E25">
-        <v>34.28538171050047</v>
+        <v>34.28538171050058</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>71.19618540749002</v>
+        <v>71.1961854074908</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>25.89309205272188</v>
+        <v>25.89309205272207</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.55582002943293</v>
+        <v>21.5558200294329</v>
       </c>
       <c r="C2">
-        <v>28.43018931641249</v>
+        <v>28.43018931641255</v>
       </c>
       <c r="D2">
-        <v>7.397002878313883</v>
+        <v>7.397002878313984</v>
       </c>
       <c r="E2">
-        <v>30.63868643724786</v>
+        <v>30.63868643724797</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,13 +430,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.83815847205582</v>
+        <v>64.83815847205616</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>23.17064224499557</v>
+        <v>23.17064224499561</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74649590828974</v>
+        <v>19.74649590828972</v>
       </c>
       <c r="C3">
-        <v>26.17899216291571</v>
+        <v>26.17899216291566</v>
       </c>
       <c r="D3">
-        <v>6.823366357827854</v>
+        <v>6.823366357827856</v>
       </c>
       <c r="E3">
-        <v>28.13387706451763</v>
+        <v>28.13387706451775</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.43941116226284</v>
+        <v>60.43941116226276</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>21.28783827226927</v>
+        <v>21.28783827226928</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.6128304256764</v>
+        <v>18.61283042567641</v>
       </c>
       <c r="C4">
-        <v>24.75938542848196</v>
+        <v>24.75938542848224</v>
       </c>
       <c r="D4">
-        <v>6.460000383600359</v>
+        <v>6.460000383600387</v>
       </c>
       <c r="E4">
-        <v>26.56394817507922</v>
+        <v>26.56394817507926</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>57.67919068670786</v>
+        <v>57.67919068670806</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>20.103338999172</v>
+        <v>20.1033389991721</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.14393980629249</v>
+        <v>18.14393980629254</v>
       </c>
       <c r="C5">
-        <v>24.17029330918728</v>
+        <v>24.17029330918731</v>
       </c>
       <c r="D5">
-        <v>6.308834869338646</v>
+        <v>6.308834869338704</v>
       </c>
       <c r="E5">
-        <v>25.91433698829879</v>
+        <v>25.91433698829884</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,13 +544,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.53786717305023</v>
+        <v>56.53786717305043</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>19.6123276334576</v>
+        <v>19.61232763345762</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.06563264873705</v>
+        <v>18.06563264873697</v>
       </c>
       <c r="C6">
-        <v>24.07180492724882</v>
+        <v>24.07180492724875</v>
       </c>
       <c r="D6">
-        <v>6.283539795458879</v>
+        <v>6.283539795458982</v>
       </c>
       <c r="E6">
-        <v>25.80582790634496</v>
+        <v>25.80582790634502</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.34731739628853</v>
+        <v>56.34731739628857</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>19.53026309347948</v>
+        <v>19.53026309347936</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.60653620843637</v>
+        <v>18.60653620843617</v>
       </c>
       <c r="C7">
-        <v>24.75148501333246</v>
+        <v>24.75148501333234</v>
       </c>
       <c r="D7">
-        <v>6.457974571384825</v>
+        <v>6.457974571384756</v>
       </c>
       <c r="E7">
-        <v>26.55522933050197</v>
+        <v>26.55522933050187</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>57.66386697427082</v>
+        <v>57.66386697427001</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>20.09675211379592</v>
+        <v>20.09675211379572</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.9358846763825</v>
+        <v>20.93588467638236</v>
       </c>
       <c r="C8">
-        <v>27.66092831669339</v>
+        <v>27.66092831669329</v>
       </c>
       <c r="D8">
-        <v>7.201337576416527</v>
+        <v>7.20133757641655</v>
       </c>
       <c r="E8">
-        <v>29.78044976197912</v>
+        <v>29.78044976197911</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,13 +658,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.33267061205141</v>
+        <v>63.33267061205089</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>22.5265818245064</v>
+        <v>22.52658182450634</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,13 +681,13 @@
         <v>25.39391642472025</v>
       </c>
       <c r="C9">
-        <v>33.1412496674839</v>
+        <v>33.14124966748408</v>
       </c>
       <c r="D9">
-        <v>8.587149915244392</v>
+        <v>8.587149915244328</v>
       </c>
       <c r="E9">
-        <v>35.95929781268023</v>
+        <v>35.95929781268027</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>74.0838435997116</v>
+        <v>74.08384359971166</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>27.13387911400542</v>
+        <v>27.13387911400545</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.7419323079199</v>
+        <v>28.74193230791991</v>
       </c>
       <c r="C10">
-        <v>37.1727258935885</v>
+        <v>37.17272589358866</v>
       </c>
       <c r="D10">
-        <v>9.593552374464338</v>
+        <v>9.593552374464235</v>
       </c>
       <c r="E10">
-        <v>40.62733720935346</v>
+        <v>40.62733720935349</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,13 +734,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>81.98512255481756</v>
+        <v>81.98512255481795</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>30.55700298246082</v>
+        <v>30.55700298246081</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.33261411160882</v>
+        <v>30.33261411160871</v>
       </c>
       <c r="C11">
-        <v>39.06091596496713</v>
+        <v>39.0609159649671</v>
       </c>
       <c r="D11">
-        <v>10.06048733448277</v>
+        <v>10.0604873344828</v>
       </c>
       <c r="E11">
-        <v>42.86185017339677</v>
+        <v>42.86185017339673</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>85.6671033946249</v>
+        <v>85.66710339462431</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>32.17220002760099</v>
+        <v>32.17220002760097</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.95190355403843</v>
+        <v>30.95190355403813</v>
       </c>
       <c r="C12">
-        <v>39.79113285406432</v>
+        <v>39.79113285406397</v>
       </c>
       <c r="D12">
-        <v>10.24021202120497</v>
+        <v>10.24021202120499</v>
       </c>
       <c r="E12">
-        <v>43.73584942952063</v>
+        <v>43.73584942952045</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>87.0861930518229</v>
+        <v>87.08619305182253</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>32.79908287826502</v>
+        <v>32.79908287826475</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.81761808716076</v>
+        <v>30.81761808716108</v>
       </c>
       <c r="C13">
-        <v>39.63302975167541</v>
+        <v>39.63302975167552</v>
       </c>
       <c r="D13">
-        <v>10.20134124232598</v>
+        <v>10.20134124232599</v>
       </c>
       <c r="E13">
-        <v>43.54611630581513</v>
+        <v>43.54611630581542</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,13 +848,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>86.77919712862834</v>
+        <v>86.77919712862852</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>32.66324375152762</v>
+        <v>32.66324375152789</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.3831690125682</v>
+        <v>30.3831690125685</v>
       </c>
       <c r="C14">
-        <v>39.12063009550435</v>
+        <v>39.12063009550437</v>
       </c>
       <c r="D14">
-        <v>10.07520303032371</v>
+        <v>10.07520303032381</v>
       </c>
       <c r="E14">
-        <v>42.93310458022583</v>
+        <v>42.93310458022597</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,13 +886,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>85.78326239995643</v>
+        <v>85.7832623999569</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>32.22341580845916</v>
+        <v>32.22341580845934</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.11953948084149</v>
+        <v>30.11953948084141</v>
       </c>
       <c r="C15">
-        <v>38.80903580120621</v>
+        <v>38.80903580120613</v>
       </c>
       <c r="D15">
-        <v>9.998379425375456</v>
+        <v>9.998379425375493</v>
       </c>
       <c r="E15">
-        <v>42.56170686940187</v>
+        <v>42.56170686940186</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>85.17692457526368</v>
+        <v>85.17692457526265</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>31.95625987991852</v>
+        <v>31.95625987991847</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.63987631272683</v>
+        <v>28.63987631272656</v>
       </c>
       <c r="C16">
-        <v>37.05097149509459</v>
+        <v>37.05097149509416</v>
       </c>
       <c r="D16">
-        <v>9.563340009372832</v>
+        <v>9.563340009372762</v>
       </c>
       <c r="E16">
-        <v>40.48441892069843</v>
+        <v>40.48441892069835</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>81.7471698266307</v>
+        <v>81.74716982662986</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>30.45312805496151</v>
+        <v>30.45312805496123</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.7535911368035</v>
+        <v>27.75359113680338</v>
       </c>
       <c r="C17">
-        <v>35.99057009497565</v>
+        <v>35.99057009497513</v>
       </c>
       <c r="D17">
         <v>9.299708963345161</v>
       </c>
       <c r="E17">
-        <v>39.24519125181855</v>
+        <v>39.24519125181838</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>79.67253160825467</v>
+        <v>79.67253160825372</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>29.54980063641733</v>
+        <v>29.5498006364171</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.24961815404662</v>
+        <v>27.24961815404648</v>
       </c>
       <c r="C18">
-        <v>35.38517263711425</v>
+        <v>35.38517263711402</v>
       </c>
       <c r="D18">
-        <v>9.148807285983755</v>
+        <v>9.148807285983816</v>
       </c>
       <c r="E18">
-        <v>38.54191472407314</v>
+        <v>38.54191472407305</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>78.4865311457785</v>
+        <v>78.48653114577789</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>29.03514102375995</v>
+        <v>29.03514102375978</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.07981014760092</v>
+        <v>27.07981014760077</v>
       </c>
       <c r="C19">
-        <v>35.18080039584729</v>
+        <v>35.18080039584726</v>
       </c>
       <c r="D19">
         <v>9.097803079707397</v>
       </c>
       <c r="E19">
-        <v>38.30515787195194</v>
+        <v>38.30515787195183</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,13 +1076,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>78.0859397004275</v>
+        <v>78.08593970042678</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>28.86156982897356</v>
+        <v>28.86156982897351</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.84729666045943</v>
+        <v>27.84729666045939</v>
       </c>
       <c r="C20">
-        <v>36.10294173410865</v>
+        <v>36.10294173410855</v>
       </c>
       <c r="D20">
-        <v>9.327687978322967</v>
+        <v>9.327687978322937</v>
       </c>
       <c r="E20">
-        <v>39.37605940147542</v>
+        <v>39.37605940147539</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>79.89255741207292</v>
+        <v>79.89255741207273</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>29.64541360467778</v>
+        <v>29.64541360467772</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.51024104763855</v>
+        <v>30.51024104763828</v>
       </c>
       <c r="C21">
-        <v>39.27064295350644</v>
+        <v>39.27064295350635</v>
       </c>
       <c r="D21">
-        <v>10.11215713970233</v>
+        <v>10.11215713970238</v>
       </c>
       <c r="E21">
-        <v>43.11227722949646</v>
+        <v>43.11227722949627</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>86.074989598374</v>
+        <v>86.07498959837318</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>32.35211680901596</v>
+        <v>32.35211680901573</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.35609067018078</v>
+        <v>32.35609067018089</v>
       </c>
       <c r="C22">
         <v>41.43648494145708</v>
       </c>
       <c r="D22">
-        <v>10.64327050587251</v>
+        <v>10.64327050587258</v>
       </c>
       <c r="E22">
-        <v>45.72791170478377</v>
+        <v>45.72791170478384</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>90.28232153734798</v>
+        <v>90.28232153734879</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>34.21643594178544</v>
+        <v>34.21643594178549</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.35772447320187</v>
+        <v>31.35772447320161</v>
       </c>
       <c r="C23">
-        <v>40.26813555654007</v>
+        <v>40.26813555654008</v>
       </c>
       <c r="D23">
-        <v>10.35734100234376</v>
+        <v>10.35734100234379</v>
       </c>
       <c r="E23">
-        <v>44.31001100470846</v>
+        <v>44.31001100470834</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>88.01149410340662</v>
+        <v>88.01149410340655</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>33.2092864959144</v>
+        <v>33.20928649591426</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.80491554539525</v>
+        <v>27.80491554539528</v>
       </c>
       <c r="C24">
-        <v>36.05212580098606</v>
+        <v>36.0521258009862</v>
       </c>
       <c r="D24">
-        <v>9.315036706977315</v>
+        <v>9.315036706977363</v>
       </c>
       <c r="E24">
-        <v>39.3168661324012</v>
+        <v>39.31686613240107</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>79.79306358158459</v>
+        <v>79.79306358158495</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>29.60217288203194</v>
+        <v>29.60217288203201</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.18796284468014</v>
+        <v>24.18796284467999</v>
       </c>
       <c r="C25">
-        <v>31.6708965665045</v>
+        <v>31.67089656650442</v>
       </c>
       <c r="D25">
-        <v>8.217233427054344</v>
+        <v>8.217233427054357</v>
       </c>
       <c r="E25">
-        <v>34.28538171050058</v>
+        <v>34.28538171050047</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>71.1961854074908</v>
+        <v>71.19618540749002</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>25.89309205272207</v>
+        <v>25.89309205272188</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.5558200294329</v>
+        <v>21.36190272172508</v>
       </c>
       <c r="C2">
-        <v>28.43018931641255</v>
+        <v>28.27428255563357</v>
       </c>
       <c r="D2">
-        <v>7.397002878313984</v>
+        <v>7.37304241686554</v>
       </c>
       <c r="E2">
-        <v>30.63868643724797</v>
+        <v>30.52909391279355</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.018771696267397</v>
       </c>
       <c r="H2">
-        <v>64.83815847205616</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>64.84677838285121</v>
       </c>
       <c r="J2">
-        <v>23.17064224499561</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.97804272984978</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74649590828972</v>
+        <v>19.56707885559951</v>
       </c>
       <c r="C3">
-        <v>26.17899216291566</v>
+        <v>26.04249959310627</v>
       </c>
       <c r="D3">
-        <v>6.823366357827856</v>
+        <v>6.801910675644608</v>
       </c>
       <c r="E3">
-        <v>28.13387706451775</v>
+        <v>28.03746298368134</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.041358622397274</v>
       </c>
       <c r="H3">
-        <v>60.43941116226276</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>60.48207729791982</v>
       </c>
       <c r="J3">
-        <v>21.28783827226928</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>21.10844389399478</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.61283042567641</v>
+        <v>18.4425280035591</v>
       </c>
       <c r="C4">
-        <v>24.75938542848224</v>
+        <v>24.63531791593162</v>
       </c>
       <c r="D4">
-        <v>6.460000383600387</v>
+        <v>6.440028975508739</v>
       </c>
       <c r="E4">
-        <v>26.56394817507926</v>
+        <v>26.47512299594371</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.055098354614846</v>
       </c>
       <c r="H4">
-        <v>57.67919068670806</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>57.7435788162726</v>
       </c>
       <c r="J4">
-        <v>20.1033389991721</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.93209836307499</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.14393980629254</v>
+        <v>17.97744100642912</v>
       </c>
       <c r="C5">
-        <v>24.17029330918731</v>
+        <v>24.05146159129885</v>
       </c>
       <c r="D5">
-        <v>6.308834869338704</v>
+        <v>6.289460533144083</v>
       </c>
       <c r="E5">
-        <v>25.91433698829884</v>
+        <v>25.82851918468531</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.060687163977857</v>
       </c>
       <c r="H5">
-        <v>56.53786717305043</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>56.61137756717832</v>
       </c>
       <c r="J5">
-        <v>19.61232763345762</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.4444521706512</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.06563264873697</v>
+        <v>17.89977181833337</v>
       </c>
       <c r="C6">
-        <v>24.07180492724875</v>
+        <v>23.95385430409891</v>
       </c>
       <c r="D6">
-        <v>6.283539795458982</v>
+        <v>6.264264272670925</v>
       </c>
       <c r="E6">
-        <v>25.80582790634502</v>
+        <v>25.72050532976215</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.061615133373246</v>
       </c>
       <c r="H6">
-        <v>56.34731739628857</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>56.4223605742099</v>
       </c>
       <c r="J6">
-        <v>19.53026309347936</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.36294979366374</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.60653620843617</v>
+        <v>18.43628467669979</v>
       </c>
       <c r="C7">
-        <v>24.75148501333234</v>
+        <v>24.62748735622442</v>
       </c>
       <c r="D7">
-        <v>6.457974571384756</v>
+        <v>6.438011240623573</v>
       </c>
       <c r="E7">
-        <v>26.55522933050187</v>
+        <v>26.46644500831269</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.055173742446779</v>
       </c>
       <c r="H7">
-        <v>57.66386697427001</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>57.72837695677894</v>
       </c>
       <c r="J7">
-        <v>20.09675211379572</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.92555665238657</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.93588467638236</v>
+        <v>20.74694657093675</v>
       </c>
       <c r="C8">
-        <v>27.66092831669329</v>
+        <v>27.51163965974456</v>
       </c>
       <c r="D8">
-        <v>7.20133757641655</v>
+        <v>7.178255859304395</v>
       </c>
       <c r="E8">
-        <v>29.78044976197911</v>
+        <v>29.67553434457785</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.026601122452875</v>
       </c>
       <c r="H8">
-        <v>63.33267061205089</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>63.35290265426449</v>
       </c>
       <c r="J8">
-        <v>22.52658182450634</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.3385464563871</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.39391642472025</v>
+        <v>25.1679559556679</v>
       </c>
       <c r="C9">
-        <v>33.14124966748408</v>
+        <v>32.94391509925263</v>
       </c>
       <c r="D9">
-        <v>8.587149915244328</v>
+        <v>8.557151154604036</v>
       </c>
       <c r="E9">
-        <v>35.95929781268027</v>
+        <v>35.81596951825401</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.968250195940848</v>
       </c>
       <c r="H9">
-        <v>74.08384359971166</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>74.0199549548841</v>
       </c>
       <c r="J9">
-        <v>27.13387911400545</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>26.91132789740936</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.74193230791991</v>
+        <v>28.48419391979669</v>
       </c>
       <c r="C10">
-        <v>37.17272589358866</v>
+        <v>36.93609273596685</v>
       </c>
       <c r="D10">
-        <v>9.593552374464235</v>
+        <v>9.55711063170348</v>
       </c>
       <c r="E10">
-        <v>40.62733720935349</v>
+        <v>40.44494089929962</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.92140563667424</v>
       </c>
       <c r="H10">
-        <v>81.98512255481795</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>81.85314736864487</v>
       </c>
       <c r="J10">
-        <v>30.55700298246081</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>30.30410757012059</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.33261411160871</v>
+        <v>30.05752118931296</v>
       </c>
       <c r="C11">
-        <v>39.0609159649671</v>
+        <v>38.80345043613219</v>
       </c>
       <c r="D11">
-        <v>10.0604873344828</v>
+        <v>10.02041839404604</v>
       </c>
       <c r="E11">
-        <v>42.86185017339673</v>
+        <v>42.65610655787051</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.898287700854911</v>
       </c>
       <c r="H11">
-        <v>85.66710339462431</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>85.49939439896367</v>
       </c>
       <c r="J11">
-        <v>32.17220002760097</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>31.9025924751783</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.95190355403813</v>
+        <v>30.66950472460811</v>
       </c>
       <c r="C12">
-        <v>39.79113285406397</v>
+        <v>39.52501137655194</v>
       </c>
       <c r="D12">
-        <v>10.24021202120499</v>
+        <v>10.19860208627186</v>
       </c>
       <c r="E12">
-        <v>43.73584942952045</v>
+        <v>43.51990314126446</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.889142924736147</v>
       </c>
       <c r="H12">
-        <v>87.08619305182253</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>86.90371301498381</v>
       </c>
       <c r="J12">
-        <v>32.79908287826475</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>32.52242242717298</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.81761808716108</v>
+        <v>30.53683311258094</v>
       </c>
       <c r="C13">
-        <v>39.63302975167552</v>
+        <v>39.36881491820583</v>
       </c>
       <c r="D13">
-        <v>10.20134124232599</v>
+        <v>10.16007227852382</v>
       </c>
       <c r="E13">
-        <v>43.54611630581542</v>
+        <v>43.33244182005062</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.891132620003402</v>
       </c>
       <c r="H13">
-        <v>86.77919712862852</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>86.59996684027568</v>
       </c>
       <c r="J13">
-        <v>32.66324375152789</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>32.38814197026898</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.3831690125685</v>
+        <v>30.10749242327233</v>
       </c>
       <c r="C14">
-        <v>39.12063009550437</v>
+        <v>38.86247068966837</v>
       </c>
       <c r="D14">
-        <v>10.07520303032381</v>
+        <v>10.03501123612984</v>
       </c>
       <c r="E14">
-        <v>42.93310458022597</v>
+        <v>42.72655368227855</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.8975441741138</v>
       </c>
       <c r="H14">
-        <v>85.7832623999569</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>85.61436766981087</v>
       </c>
       <c r="J14">
-        <v>32.22341580845934</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>31.9532451180614</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.11953948084141</v>
+        <v>29.84688292586942</v>
       </c>
       <c r="C15">
-        <v>38.80903580120613</v>
+        <v>38.55447122919624</v>
       </c>
       <c r="D15">
-        <v>9.998379425375493</v>
+        <v>9.958822779550809</v>
       </c>
       <c r="E15">
-        <v>42.56170686940186</v>
+        <v>42.35931806986184</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.901415564440613</v>
       </c>
       <c r="H15">
-        <v>85.17692457526265</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>85.01417602578545</v>
       </c>
       <c r="J15">
-        <v>31.95625987991847</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>31.68900234987485</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.63987631272656</v>
+        <v>28.38319137877201</v>
       </c>
       <c r="C16">
-        <v>37.05097149509416</v>
+        <v>36.81561610168988</v>
       </c>
       <c r="D16">
-        <v>9.563340009372762</v>
+        <v>9.527116553967156</v>
       </c>
       <c r="E16">
-        <v>40.48441892069835</v>
+        <v>40.30339714745269</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.922870306037925</v>
       </c>
       <c r="H16">
-        <v>81.74716982662986</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>81.61739479041323</v>
       </c>
       <c r="J16">
-        <v>30.45312805496123</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>30.20124472501645</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.75359113680338</v>
+        <v>27.50579626947841</v>
       </c>
       <c r="C17">
-        <v>35.99057009497513</v>
+        <v>35.76606241299823</v>
       </c>
       <c r="D17">
-        <v>9.299708963345161</v>
+        <v>9.265316864916169</v>
       </c>
       <c r="E17">
-        <v>39.24519125181838</v>
+        <v>39.07556229318029</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.935494226301804</v>
       </c>
       <c r="H17">
-        <v>79.67253160825372</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>79.56147327037057</v>
       </c>
       <c r="J17">
-        <v>29.5498006364171</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>29.30644445819526</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.24961815404648</v>
+        <v>27.00669030872603</v>
       </c>
       <c r="C18">
-        <v>35.38517263711402</v>
+        <v>35.16665459358715</v>
       </c>
       <c r="D18">
-        <v>9.148807285983816</v>
+        <v>9.115408643102056</v>
       </c>
       <c r="E18">
-        <v>38.54191472407305</v>
+        <v>38.37836113456709</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.942595342157202</v>
       </c>
       <c r="H18">
-        <v>78.48653114577789</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>78.38583617107824</v>
       </c>
       <c r="J18">
-        <v>29.03514102375978</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>28.79644131596348</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.07981014760077</v>
+        <v>26.83849442471416</v>
       </c>
       <c r="C19">
-        <v>35.18080039584726</v>
+        <v>34.96427455877868</v>
       </c>
       <c r="D19">
-        <v>9.097803079707397</v>
+        <v>9.064731903095101</v>
       </c>
       <c r="E19">
-        <v>38.30515787195183</v>
+        <v>38.1435905684398</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.944975240203746</v>
       </c>
       <c r="H19">
-        <v>78.08593970042678</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>77.98869610144925</v>
       </c>
       <c r="J19">
-        <v>28.86156982897351</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>28.62441039918043</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.84729666045939</v>
+        <v>27.59858256701055</v>
       </c>
       <c r="C20">
-        <v>36.10294173410855</v>
+        <v>35.87730691983138</v>
       </c>
       <c r="D20">
-        <v>9.327687978322937</v>
+        <v>9.293107476336072</v>
       </c>
       <c r="E20">
-        <v>39.37605940147539</v>
+        <v>39.20526992235106</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.93416768138102</v>
       </c>
       <c r="H20">
-        <v>79.89255741207273</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>79.7795511576868</v>
       </c>
       <c r="J20">
-        <v>29.64541360467772</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>29.40117696014676</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.51024104763828</v>
+        <v>30.23308765845167</v>
       </c>
       <c r="C21">
-        <v>39.27064295350635</v>
+        <v>39.01072974879774</v>
       </c>
       <c r="D21">
-        <v>10.11215713970238</v>
+        <v>10.0716542911085</v>
       </c>
       <c r="E21">
-        <v>43.11227722949627</v>
+        <v>42.90367760942511</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.895672925970474</v>
       </c>
       <c r="H21">
-        <v>86.07498959837318</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>85.90309917229408</v>
       </c>
       <c r="J21">
-        <v>32.35211680901573</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>32.08052100349572</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.35609067018089</v>
+        <v>32.05569597624531</v>
       </c>
       <c r="C22">
-        <v>41.43648494145708</v>
+        <v>41.14929597639544</v>
       </c>
       <c r="D22">
-        <v>10.64327050587258</v>
+        <v>10.59784153330871</v>
       </c>
       <c r="E22">
-        <v>45.72791170478384</v>
+        <v>45.4859787737496</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.868116957288742</v>
       </c>
       <c r="H22">
-        <v>90.28232153734879</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>90.05333635921419</v>
       </c>
       <c r="J22">
-        <v>34.21643594178549</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>33.92237393853238</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.35772447320161</v>
+        <v>31.070342002498</v>
       </c>
       <c r="C23">
-        <v>40.26813555654008</v>
+        <v>39.99614502380733</v>
       </c>
       <c r="D23">
-        <v>10.35734100234379</v>
+        <v>10.31467633684034</v>
       </c>
       <c r="E23">
-        <v>44.31001100470834</v>
+        <v>44.08698650375399</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.88310736094639</v>
       </c>
       <c r="H23">
-        <v>88.01149410340655</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>87.8190243312752</v>
       </c>
       <c r="J23">
-        <v>33.20928649591426</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>32.92781059065844</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.80491554539528</v>
+        <v>27.55661777406204</v>
       </c>
       <c r="C24">
-        <v>36.0521258009862</v>
+        <v>35.82700131047621</v>
       </c>
       <c r="D24">
-        <v>9.315036706977363</v>
+        <v>9.280541563057914</v>
       </c>
       <c r="E24">
-        <v>39.31686613240107</v>
+        <v>39.14660276766476</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.934767891161786</v>
       </c>
       <c r="H24">
-        <v>79.79306358158495</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>79.68093918199534</v>
       </c>
       <c r="J24">
-        <v>29.60217288203201</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>29.35833504296226</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.18796284467999</v>
+        <v>23.97240205647851</v>
       </c>
       <c r="C25">
-        <v>31.67089656650442</v>
+        <v>31.4867942026271</v>
       </c>
       <c r="D25">
-        <v>8.217233427054357</v>
+        <v>8.189258033550557</v>
       </c>
       <c r="E25">
-        <v>34.28538171050047</v>
+        <v>34.1536699626301</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.984498878506954</v>
       </c>
       <c r="H25">
-        <v>71.19618540749002</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>71.15539649114895</v>
       </c>
       <c r="J25">
-        <v>25.89309205272188</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>25.68035489094596</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
@@ -420,120 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>14.08773934340903</v>
+      </c>
+      <c r="C2">
+        <v>8.21582749872449</v>
+      </c>
+      <c r="D2">
+        <v>7.123951202310566</v>
+      </c>
+      <c r="E2">
+        <v>29.3981330914996</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2.086642108989877</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>12.63779128564662</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>19.29680585571144</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>13.14764620637786</v>
+      </c>
+      <c r="C3">
+        <v>7.806045349700021</v>
+      </c>
+      <c r="D3">
+        <v>6.626205239831641</v>
+      </c>
+      <c r="E3">
+        <v>27.25177717282353</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2.093612141316016</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>11.88778488021084</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>18.96764715237692</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>12.53868896432085</v>
+      </c>
+      <c r="C4">
+        <v>7.544010552371344</v>
+      </c>
+      <c r="D4">
+        <v>6.304040955377645</v>
+      </c>
+      <c r="E4">
+        <v>25.87253581840279</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2.097996499885701</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>11.40441681470402</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>18.78240433531408</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>12.28248998080957</v>
+      </c>
+      <c r="C5">
+        <v>7.43464592306347</v>
+      </c>
+      <c r="D5">
+        <v>6.186093676967156</v>
+      </c>
+      <c r="E5">
+        <v>25.29470227695749</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2.099810846767971</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>11.20170370203799</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>18.7110480356216</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>12.23946077176906</v>
+      </c>
+      <c r="C6">
+        <v>7.416331391140535</v>
+      </c>
+      <c r="D6">
+        <v>6.166865859714035</v>
+      </c>
+      <c r="E6">
+        <v>25.19779051157975</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2.100113827525671</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>11.16769756476206</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>18.69944557902802</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>12.53526642433092</v>
+      </c>
+      <c r="C7">
+        <v>7.54254602111075</v>
+      </c>
+      <c r="D7">
+        <v>6.30223077826445</v>
+      </c>
+      <c r="E7">
+        <v>25.86480729764852</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.098020854987836</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>11.4017061536692</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>18.78142541989622</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>13.77014161426016</v>
+      </c>
+      <c r="C8">
+        <v>8.076717491934245</v>
+      </c>
+      <c r="D8">
+        <v>6.955735264097962</v>
+      </c>
+      <c r="E8">
+        <v>28.6705889110167</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.08902448245241</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>12.3839355072291</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>19.17974940452658</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>15.94314983218903</v>
+      </c>
+      <c r="C9">
+        <v>9.040525995440445</v>
+      </c>
+      <c r="D9">
+        <v>8.108070181489714</v>
+      </c>
+      <c r="E9">
+        <v>33.70292424557791</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.072147157715009</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>14.12908488856789</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>20.09919274129696</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>17.39313122279324</v>
+      </c>
+      <c r="C10">
+        <v>9.697290233874071</v>
+      </c>
+      <c r="D10">
+        <v>8.879023583065397</v>
+      </c>
+      <c r="E10">
+        <v>37.14012493679652</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.060111450149892</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>15.30262340034046</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>20.86511172064328</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>18.02219439548515</v>
+      </c>
+      <c r="C11">
+        <v>9.985110283323968</v>
+      </c>
+      <c r="D11">
+        <v>9.214051247417173</v>
+      </c>
+      <c r="E11">
+        <v>38.6539925965094</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2.054689529788648</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>15.81357763616575</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>21.23452344693291</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>18.25612657111569</v>
+      </c>
+      <c r="C12">
+        <v>10.09255730476373</v>
+      </c>
+      <c r="D12">
+        <v>9.338727509453561</v>
+      </c>
+      <c r="E12">
+        <v>39.22073687165097</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2.052641631830552</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>16.00384274373695</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>21.3775491747967</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>18.20593357102422</v>
+      </c>
+      <c r="C13">
+        <v>10.0694847401067</v>
+      </c>
+      <c r="D13">
+        <v>9.311972639721725</v>
+      </c>
+      <c r="E13">
+        <v>39.09895768440071</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2.053082490044613</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>15.96300778901653</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>21.346604422542</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>18.04152524459505</v>
+      </c>
+      <c r="C14">
+        <v>9.993980748358142</v>
+      </c>
+      <c r="D14">
+        <v>9.224351974679077</v>
+      </c>
+      <c r="E14">
+        <v>38.70074587345566</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>2.054520957100748</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>15.82929498670305</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>21.24622664299926</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>17.94026645644605</v>
+      </c>
+      <c r="C15">
+        <v>9.947532365837022</v>
+      </c>
+      <c r="D15">
+        <v>9.170398376764572</v>
+      </c>
+      <c r="E15">
+        <v>38.45599992039097</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2.055402670007276</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>15.74697473198832</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>21.18515474090731</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>17.351415176546</v>
+      </c>
+      <c r="C16">
+        <v>9.67826253420694</v>
+      </c>
+      <c r="D16">
+        <v>8.856818490434762</v>
+      </c>
+      <c r="E16">
+        <v>37.04024119989604</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2.060466658137662</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>15.26877631009567</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>20.84140204362372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>16.98242761206738</v>
+      </c>
+      <c r="C17">
+        <v>9.510288186175343</v>
+      </c>
+      <c r="D17">
+        <v>8.660474400698183</v>
+      </c>
+      <c r="E17">
+        <v>36.15940343722919</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2.063585261618589</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>14.969598655279</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>20.63597767992541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>16.76731381219464</v>
+      </c>
+      <c r="C18">
+        <v>9.41264103053244</v>
+      </c>
+      <c r="D18">
+        <v>8.546062227345196</v>
+      </c>
+      <c r="E18">
+        <v>35.64804602596441</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2.065384163429622</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>14.79535960731512</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>20.51979105035692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>16.69398178878179</v>
+      </c>
+      <c r="C19">
+        <v>9.379401296808805</v>
+      </c>
+      <c r="D19">
+        <v>8.507068137150252</v>
+      </c>
+      <c r="E19">
+        <v>35.47408019366301</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2.065994195732437</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>14.73599237799952</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>20.48078686406757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>17.02200446343916</v>
+      </c>
+      <c r="C20">
+        <v>9.528276051441077</v>
+      </c>
+      <c r="D20">
+        <v>8.681528318467144</v>
+      </c>
+      <c r="E20">
+        <v>36.25365462269354</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2.063252762933773</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>15.00166971397922</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>20.65764095413188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>18.08993118159955</v>
+      </c>
+      <c r="C21">
+        <v>10.0161997120183</v>
+      </c>
+      <c r="D21">
+        <v>9.250147229243719</v>
+      </c>
+      <c r="E21">
+        <v>38.81788201379631</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2.054098321923216</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>15.86865649842691</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>21.27562385436453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>18.76299354923781</v>
+      </c>
+      <c r="C22">
+        <v>10.32610794284788</v>
+      </c>
+      <c r="D22">
+        <v>9.609032630634811</v>
+      </c>
+      <c r="E22">
+        <v>40.45607450813732</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2.048144742309022</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>16.41654393940561</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>21.69786676561771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>18.40600512943884</v>
+      </c>
+      <c r="C23">
+        <v>10.16151255554241</v>
+      </c>
+      <c r="D23">
+        <v>9.41863198389016</v>
+      </c>
+      <c r="E23">
+        <v>39.58495905813908</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2.0513204540031</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>16.12581382202176</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>21.47078466445464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>17.00412105280538</v>
+      </c>
+      <c r="C24">
+        <v>9.520147092593671</v>
+      </c>
+      <c r="D24">
+        <v>8.672014616780068</v>
+      </c>
+      <c r="E24">
+        <v>36.21105913252264</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2.063403066801746</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>14.98717736379196</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>20.64784103316926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>15.38141695160617</v>
+      </c>
+      <c r="C25">
+        <v>8.788831136435846</v>
+      </c>
+      <c r="D25">
+        <v>7.809855400417959</v>
+      </c>
+      <c r="E25">
+        <v>32.38927825131924</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2.076641012234929</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>13.67623036220284</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>19.83501836334587</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.08773934340903</v>
+        <v>10.14708026778702</v>
       </c>
       <c r="C2">
-        <v>8.21582749872449</v>
+        <v>5.375521853503479</v>
       </c>
       <c r="D2">
-        <v>7.123951202310566</v>
+        <v>5.992139340925059</v>
       </c>
       <c r="E2">
-        <v>29.3981330914996</v>
+        <v>16.39620419057874</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.086642108989877</v>
+        <v>3.64752412408999</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.63779128564662</v>
+        <v>9.392611218413609</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.29680585571144</v>
+        <v>24.95410262116516</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.14764620637786</v>
+        <v>9.85068229757689</v>
       </c>
       <c r="C3">
-        <v>7.806045349700021</v>
+        <v>5.174292670948209</v>
       </c>
       <c r="D3">
-        <v>6.626205239831641</v>
+        <v>5.874898842391129</v>
       </c>
       <c r="E3">
-        <v>27.25177717282353</v>
+        <v>15.47245837382427</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.093612141316016</v>
+        <v>3.64996292289891</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.88778488021084</v>
+        <v>9.188900869594008</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.96764715237692</v>
+        <v>24.9647474462114</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.53868896432085</v>
+        <v>9.666592409111445</v>
       </c>
       <c r="C4">
-        <v>7.544010552371344</v>
+        <v>5.045510473695003</v>
       </c>
       <c r="D4">
-        <v>6.304040955377645</v>
+        <v>5.803535966990759</v>
       </c>
       <c r="E4">
-        <v>25.87253581840279</v>
+        <v>14.88122209026717</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.097996499885701</v>
+        <v>3.651537378023464</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.40441681470402</v>
+        <v>9.06370708904592</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.78240433531408</v>
+        <v>24.97740567019552</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.28248998080957</v>
+        <v>9.591172527657672</v>
       </c>
       <c r="C5">
-        <v>7.43464592306347</v>
+        <v>4.991759221802056</v>
       </c>
       <c r="D5">
-        <v>6.186093676967156</v>
+        <v>5.774656154355168</v>
       </c>
       <c r="E5">
-        <v>25.29470227695749</v>
+        <v>14.63451316271008</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.099810846767971</v>
+        <v>3.652198418473267</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.20170370203799</v>
+        <v>9.012738037479922</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.7110480356216</v>
+        <v>24.98409925333344</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.23946077176906</v>
+        <v>9.578628687534383</v>
       </c>
       <c r="C6">
-        <v>7.416331391140535</v>
+        <v>4.982758433311137</v>
       </c>
       <c r="D6">
-        <v>6.166865859714035</v>
+        <v>5.769874135316933</v>
       </c>
       <c r="E6">
-        <v>25.19779051157975</v>
+        <v>14.59320753499653</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.100113827525671</v>
+        <v>3.65230935972895</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.16769756476206</v>
+        <v>9.004279887138148</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.69944557902802</v>
+        <v>24.98530330361847</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.53526642433092</v>
+        <v>9.665576724450492</v>
       </c>
       <c r="C7">
-        <v>7.54254602111075</v>
+        <v>5.044790652991947</v>
       </c>
       <c r="D7">
-        <v>6.30223077826445</v>
+        <v>5.803145610414774</v>
       </c>
       <c r="E7">
-        <v>25.86480729764852</v>
+        <v>14.87791787206011</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.098020854987836</v>
+        <v>3.651546214254532</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.4017061536692</v>
+        <v>9.063019402951324</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.78142541989622</v>
+        <v>24.97748973231677</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.77014161426016</v>
+        <v>10.04539164156706</v>
       </c>
       <c r="C8">
-        <v>8.076717491934245</v>
+        <v>5.307246857296024</v>
       </c>
       <c r="D8">
-        <v>6.955735264097962</v>
+        <v>5.951611979748766</v>
       </c>
       <c r="E8">
-        <v>28.6705889110167</v>
+        <v>16.08283683427257</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.08902448245241</v>
+        <v>3.648349077565916</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.3839355072291</v>
+        <v>9.322441442477736</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.17974940452658</v>
+        <v>24.95649996800778</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.94314983218903</v>
+        <v>10.76838834984202</v>
       </c>
       <c r="C9">
-        <v>9.040525995440445</v>
+        <v>5.77883630259964</v>
       </c>
       <c r="D9">
-        <v>8.108070181489714</v>
+        <v>6.245776082497531</v>
       </c>
       <c r="E9">
-        <v>33.70292424557791</v>
+        <v>18.29804626260722</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.072147157715009</v>
+        <v>3.642687480382768</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.12908488856789</v>
+        <v>9.826977902096964</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.09919274129696</v>
+        <v>24.96407271876498</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.39313122279324</v>
+        <v>11.27996572198052</v>
       </c>
       <c r="C10">
-        <v>9.697290233874071</v>
+        <v>6.097221164779831</v>
       </c>
       <c r="D10">
-        <v>8.879023583065397</v>
+        <v>6.461235412884745</v>
       </c>
       <c r="E10">
-        <v>37.14012493679652</v>
+        <v>19.92712090215458</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.060111450149892</v>
+        <v>3.638894109335553</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.30262340034046</v>
+        <v>10.19092405660235</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.86511172064328</v>
+        <v>24.99951028970537</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.02219439548515</v>
+        <v>11.50727902053532</v>
       </c>
       <c r="C11">
-        <v>9.985110283323968</v>
+        <v>6.235661793129106</v>
       </c>
       <c r="D11">
-        <v>9.214051247417173</v>
+        <v>6.558607789958288</v>
       </c>
       <c r="E11">
-        <v>38.6539925965094</v>
+        <v>20.62650663717255</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.054689529788648</v>
+        <v>3.637246977445189</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.81357763616575</v>
+        <v>10.35421465036082</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.23452344693291</v>
+        <v>25.02213562230112</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.25612657111569</v>
+        <v>11.59249455317131</v>
       </c>
       <c r="C12">
-        <v>10.09255730476373</v>
+        <v>6.287145740972165</v>
       </c>
       <c r="D12">
-        <v>9.338727509453561</v>
+        <v>6.595348698633413</v>
       </c>
       <c r="E12">
-        <v>39.22073687165097</v>
+        <v>20.88538772446913</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.052641631830552</v>
+        <v>3.636634466139545</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.00384274373695</v>
+        <v>10.41565954694906</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.3775491747967</v>
+        <v>25.03163835118458</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.20593357102422</v>
+        <v>11.57418152468549</v>
       </c>
       <c r="C13">
-        <v>10.0694847401067</v>
+        <v>6.276099882484927</v>
       </c>
       <c r="D13">
-        <v>9.311972639721725</v>
+        <v>6.587442362068481</v>
       </c>
       <c r="E13">
-        <v>39.09895768440071</v>
+        <v>20.82989763900306</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.053082490044613</v>
+        <v>3.636765883350844</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.96300778901653</v>
+        <v>10.40244458315182</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.346604422542</v>
+        <v>25.02955019940674</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.04152524459505</v>
+        <v>11.51430751216371</v>
       </c>
       <c r="C14">
-        <v>9.993980748358142</v>
+        <v>6.239916366976446</v>
       </c>
       <c r="D14">
-        <v>9.224351974679077</v>
+        <v>6.561633349836975</v>
       </c>
       <c r="E14">
-        <v>38.70074587345566</v>
+        <v>20.6479242176566</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.054520957100748</v>
+        <v>3.637196361242404</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.82929498670305</v>
+        <v>10.35927791643057</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.24622664299926</v>
+        <v>25.02289868396274</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.94026645644605</v>
+        <v>11.47751815205305</v>
       </c>
       <c r="C15">
-        <v>9.947532365837022</v>
+        <v>6.217629866567568</v>
       </c>
       <c r="D15">
-        <v>9.170398376764572</v>
+        <v>6.545806265877243</v>
       </c>
       <c r="E15">
-        <v>38.45599992039097</v>
+        <v>20.53568492473746</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.055402670007276</v>
+        <v>3.637461500859825</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.74697473198832</v>
+        <v>10.33278453082432</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.18515474090731</v>
+        <v>25.01894617766088</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.351415176546</v>
+        <v>11.26499396211646</v>
       </c>
       <c r="C16">
-        <v>9.67826253420694</v>
+        <v>6.088043204258531</v>
       </c>
       <c r="D16">
-        <v>8.856818490434762</v>
+        <v>6.45485555548068</v>
       </c>
       <c r="E16">
-        <v>37.04024119989604</v>
+        <v>19.8805784013876</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.060466658137662</v>
+        <v>3.639003327148324</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.26877631009567</v>
+        <v>10.18020144531347</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.84140204362372</v>
+        <v>24.99816255213302</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.98242761206738</v>
+        <v>11.1331689923912</v>
       </c>
       <c r="C17">
-        <v>9.510288186175343</v>
+        <v>6.00689226567659</v>
       </c>
       <c r="D17">
-        <v>8.660474400698183</v>
+        <v>6.398867114100971</v>
       </c>
       <c r="E17">
-        <v>36.15940343722919</v>
+        <v>19.46803835211009</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.063585261618589</v>
+        <v>3.639969244726455</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.969598655279</v>
+        <v>10.08596884828773</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.63597767992541</v>
+        <v>24.98707850890672</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.76731381219464</v>
+        <v>11.05684251062538</v>
       </c>
       <c r="C18">
-        <v>9.41264103053244</v>
+        <v>5.959615574465095</v>
       </c>
       <c r="D18">
-        <v>8.546062227345196</v>
+        <v>6.366605941270051</v>
       </c>
       <c r="E18">
-        <v>35.64804602596441</v>
+        <v>19.22683031224161</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.065384163429622</v>
+        <v>3.64053220684624</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.79535960731512</v>
+        <v>10.03155857368751</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.51979105035692</v>
+        <v>24.98131558490399</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.69398178878179</v>
+        <v>11.03091582234516</v>
       </c>
       <c r="C19">
-        <v>9.379401296808805</v>
+        <v>5.943506002067909</v>
       </c>
       <c r="D19">
-        <v>8.507068137150252</v>
+        <v>6.355674127485137</v>
       </c>
       <c r="E19">
-        <v>35.47408019366301</v>
+        <v>19.14448610597393</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.065994195732437</v>
+        <v>3.640724087702826</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.73599237799952</v>
+        <v>10.01310208736873</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.48078686406757</v>
+        <v>24.97946952040224</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.02200446343916</v>
+        <v>11.14725482091696</v>
       </c>
       <c r="C20">
-        <v>9.528276051441077</v>
+        <v>6.015593266535117</v>
       </c>
       <c r="D20">
-        <v>8.681528318467144</v>
+        <v>6.404833486952059</v>
       </c>
       <c r="E20">
-        <v>36.25365462269354</v>
+        <v>19.51236001781804</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.063252762933773</v>
+        <v>3.639865656591749</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.00166971397922</v>
+        <v>10.09602229312119</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.65764095413188</v>
+        <v>24.9881950503637</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.08993118159955</v>
+        <v>11.53191802614811</v>
       </c>
       <c r="C21">
-        <v>10.0161997120183</v>
+        <v>6.250570019721767</v>
       </c>
       <c r="D21">
-        <v>9.250147229243719</v>
+        <v>6.569217967787823</v>
       </c>
       <c r="E21">
-        <v>38.81788201379631</v>
+        <v>20.70153573843455</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.054098321923216</v>
+        <v>3.637069615411999</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.86865649842691</v>
+        <v>10.37196807229535</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.27562385436453</v>
+        <v>25.02482702693205</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.76299354923781</v>
+        <v>11.77825308749305</v>
       </c>
       <c r="C22">
-        <v>10.32610794284788</v>
+        <v>6.398651290381391</v>
       </c>
       <c r="D22">
-        <v>9.609032630634811</v>
+        <v>6.675867052014972</v>
       </c>
       <c r="E22">
-        <v>40.45607450813732</v>
+        <v>21.44400035218508</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.048144742309022</v>
+        <v>3.635307620040344</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.41654393940561</v>
+        <v>10.55001675335283</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.69786676561771</v>
+        <v>25.05421724488147</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.40600512943884</v>
+        <v>11.64726899758995</v>
       </c>
       <c r="C23">
-        <v>10.16151255554241</v>
+        <v>6.320125973424819</v>
       </c>
       <c r="D23">
-        <v>9.41863198389016</v>
+        <v>6.619030875095266</v>
       </c>
       <c r="E23">
-        <v>39.58495905813908</v>
+        <v>21.05089979473863</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.0513204540031</v>
+        <v>3.636242069394264</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.12581382202176</v>
+        <v>10.4552188656519</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.47078466445464</v>
+        <v>25.03803289864601</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.00412105280538</v>
+        <v>11.14088828867717</v>
       </c>
       <c r="C24">
-        <v>9.520147092593671</v>
+        <v>6.011661479697771</v>
       </c>
       <c r="D24">
-        <v>8.672014616780068</v>
+        <v>6.402136313130895</v>
       </c>
       <c r="E24">
-        <v>36.21105913252264</v>
+        <v>19.49233475884239</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.063403066801746</v>
+        <v>3.639912464972636</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.98717736379196</v>
+        <v>10.09147785685943</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.64784103316926</v>
+        <v>24.98768836342697</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.38141695160617</v>
+        <v>10.57581947844026</v>
       </c>
       <c r="C25">
-        <v>8.788831136435846</v>
+        <v>5.656077057464421</v>
       </c>
       <c r="D25">
-        <v>7.809855400417959</v>
+        <v>6.166137226063226</v>
       </c>
       <c r="E25">
-        <v>32.38927825131924</v>
+        <v>17.68289412145244</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.076641012234929</v>
+        <v>3.644154463928588</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.67623036220284</v>
+        <v>9.691380926562539</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.83501836334587</v>
+        <v>24.95678632520319</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.14708026778702</v>
+        <v>14.08773934340895</v>
       </c>
       <c r="C2">
-        <v>5.375521853503479</v>
+        <v>8.21582749872467</v>
       </c>
       <c r="D2">
-        <v>5.992139340925059</v>
+        <v>7.123951202310604</v>
       </c>
       <c r="E2">
-        <v>16.39620419057874</v>
+        <v>29.39813309149968</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.64752412408999</v>
+        <v>2.08664210898961</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.392611218413609</v>
+        <v>12.63779128564659</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.95410262116516</v>
+        <v>19.29680585571137</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.85068229757689</v>
+        <v>13.14764620637797</v>
       </c>
       <c r="C3">
-        <v>5.174292670948209</v>
+        <v>7.806045349700039</v>
       </c>
       <c r="D3">
-        <v>5.874898842391129</v>
+        <v>6.626205239831735</v>
       </c>
       <c r="E3">
-        <v>15.47245837382427</v>
+        <v>27.25177717282358</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.64996292289891</v>
+        <v>2.093612141315752</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.188900869594008</v>
+        <v>11.88778488021096</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.9647474462114</v>
+        <v>18.96764715237675</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.666592409111445</v>
+        <v>12.53868896432084</v>
       </c>
       <c r="C4">
-        <v>5.045510473695003</v>
+        <v>7.544010552371422</v>
       </c>
       <c r="D4">
-        <v>5.803535966990759</v>
+        <v>6.304040955377708</v>
       </c>
       <c r="E4">
-        <v>14.88122209026717</v>
+        <v>25.87253581840276</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.651537378023464</v>
+        <v>2.09799649988597</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.06370708904592</v>
+        <v>11.40441681470404</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.97740567019552</v>
+        <v>18.78240433531396</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.591172527657672</v>
+        <v>12.28248998080954</v>
       </c>
       <c r="C5">
-        <v>4.991759221802056</v>
+        <v>7.434645923063645</v>
       </c>
       <c r="D5">
-        <v>5.774656154355168</v>
+        <v>6.186093676967126</v>
       </c>
       <c r="E5">
-        <v>14.63451316271008</v>
+        <v>25.29470227695742</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.652198418473267</v>
+        <v>2.099810846768104</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.012738037479922</v>
+        <v>11.20170370203802</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.98409925333344</v>
+        <v>18.71104803562154</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.578628687534383</v>
+        <v>12.23946077176903</v>
       </c>
       <c r="C6">
-        <v>4.982758433311137</v>
+        <v>7.416331391140455</v>
       </c>
       <c r="D6">
-        <v>5.769874135316933</v>
+        <v>6.16686585971402</v>
       </c>
       <c r="E6">
-        <v>14.59320753499653</v>
+        <v>25.19779051157981</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.65230935972895</v>
+        <v>2.10011382752554</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.004279887138148</v>
+        <v>11.16769756476204</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.98530330361847</v>
+        <v>18.69944557902805</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.665576724450492</v>
+        <v>12.53526642433091</v>
       </c>
       <c r="C7">
-        <v>5.044790652991947</v>
+        <v>7.542546021110634</v>
       </c>
       <c r="D7">
-        <v>5.803145610414774</v>
+        <v>6.302230778264439</v>
       </c>
       <c r="E7">
-        <v>14.87791787206011</v>
+        <v>25.86480729764848</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.651546214254532</v>
+        <v>2.098020854987434</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.063019402951324</v>
+        <v>11.40170615366917</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.97748973231677</v>
+        <v>18.78142541989628</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.04539164156706</v>
+        <v>13.77014161426015</v>
       </c>
       <c r="C8">
-        <v>5.307246857296024</v>
+        <v>8.076717491934323</v>
       </c>
       <c r="D8">
-        <v>5.951611979748766</v>
+        <v>6.955735264097962</v>
       </c>
       <c r="E8">
-        <v>16.08283683427257</v>
+        <v>28.67058891101664</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.648349077565916</v>
+        <v>2.089024482452408</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.322441442477736</v>
+        <v>12.38393550722912</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.95649996800778</v>
+        <v>19.1797494045266</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.76838834984202</v>
+        <v>15.943149832189</v>
       </c>
       <c r="C9">
-        <v>5.77883630259964</v>
+        <v>9.040525995440577</v>
       </c>
       <c r="D9">
-        <v>6.245776082497531</v>
+        <v>8.108070181489762</v>
       </c>
       <c r="E9">
-        <v>18.29804626260722</v>
+        <v>33.70292424557785</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.642687480382768</v>
+        <v>2.072147157715011</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.826977902096964</v>
+        <v>14.12908488856793</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.96407271876498</v>
+        <v>20.09919274129681</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.27996572198052</v>
+        <v>17.39313122279328</v>
       </c>
       <c r="C10">
-        <v>6.097221164779831</v>
+        <v>9.697290233874064</v>
       </c>
       <c r="D10">
-        <v>6.461235412884745</v>
+        <v>8.87902358306539</v>
       </c>
       <c r="E10">
-        <v>19.92712090215458</v>
+        <v>37.14012493679642</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.638894109335553</v>
+        <v>2.060111450149888</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.19092405660235</v>
+        <v>15.30262340034053</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.99951028970537</v>
+        <v>20.86511172064319</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.50727902053532</v>
+        <v>18.02219439548512</v>
       </c>
       <c r="C11">
-        <v>6.235661793129106</v>
+        <v>9.985110283324056</v>
       </c>
       <c r="D11">
-        <v>6.558607789958288</v>
+        <v>9.214051247417105</v>
       </c>
       <c r="E11">
-        <v>20.62650663717255</v>
+        <v>38.65399259650937</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.637246977445189</v>
+        <v>2.054689529788785</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.35421465036082</v>
+        <v>15.81357763616574</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.02213562230112</v>
+        <v>21.234523446933</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.59249455317131</v>
+        <v>18.25612657111573</v>
       </c>
       <c r="C12">
-        <v>6.287145740972165</v>
+        <v>10.09255730476362</v>
       </c>
       <c r="D12">
-        <v>6.595348698633413</v>
+        <v>9.3387275094536</v>
       </c>
       <c r="E12">
-        <v>20.88538772446913</v>
+        <v>39.220736871651</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.636634466139545</v>
+        <v>2.052641631830681</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.41565954694906</v>
+        <v>16.00384274373697</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.03163835118458</v>
+        <v>21.37754917479664</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.57418152468549</v>
+        <v>18.20593357102435</v>
       </c>
       <c r="C13">
-        <v>6.276099882484927</v>
+        <v>10.06948474010662</v>
       </c>
       <c r="D13">
-        <v>6.587442362068481</v>
+        <v>9.311972639721773</v>
       </c>
       <c r="E13">
-        <v>20.82989763900306</v>
+        <v>39.09895768440078</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.636765883350844</v>
+        <v>2.05308249004448</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.40244458315182</v>
+        <v>15.96300778901661</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.02955019940674</v>
+        <v>21.34660442254189</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.51430751216371</v>
+        <v>18.04152524459508</v>
       </c>
       <c r="C14">
-        <v>6.239916366976446</v>
+        <v>9.993980748358181</v>
       </c>
       <c r="D14">
-        <v>6.561633349836975</v>
+        <v>9.224351974679092</v>
       </c>
       <c r="E14">
-        <v>20.6479242176566</v>
+        <v>38.7007458734557</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.637196361242404</v>
+        <v>2.054520957100614</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.35927791643057</v>
+        <v>15.82929498670309</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.02289868396274</v>
+        <v>21.24622664299925</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.47751815205305</v>
+        <v>17.94026645644613</v>
       </c>
       <c r="C15">
-        <v>6.217629866567568</v>
+        <v>9.947532365837041</v>
       </c>
       <c r="D15">
-        <v>6.545806265877243</v>
+        <v>9.170398376764698</v>
       </c>
       <c r="E15">
-        <v>20.53568492473746</v>
+        <v>38.45599992039103</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.637461500859825</v>
+        <v>2.055402670007278</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.33278453082432</v>
+        <v>15.7469747319884</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.01894617766088</v>
+        <v>21.18515474090727</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.26499396211646</v>
+        <v>17.35141517654603</v>
       </c>
       <c r="C16">
-        <v>6.088043204258531</v>
+        <v>9.678262534206869</v>
       </c>
       <c r="D16">
-        <v>6.45485555548068</v>
+        <v>8.856818490434788</v>
       </c>
       <c r="E16">
-        <v>19.8805784013876</v>
+        <v>37.04024119989602</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.639003327148324</v>
+        <v>2.060466658137793</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.18020144531347</v>
+        <v>15.2687763100957</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.99816255213302</v>
+        <v>20.84140204362377</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.1331689923912</v>
+        <v>16.9824276120674</v>
       </c>
       <c r="C17">
-        <v>6.00689226567659</v>
+        <v>9.510288186175323</v>
       </c>
       <c r="D17">
-        <v>6.398867114100971</v>
+        <v>8.660474400698234</v>
       </c>
       <c r="E17">
-        <v>19.46803835211009</v>
+        <v>36.15940343722924</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.639969244726455</v>
+        <v>2.063585261618322</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.08596884828773</v>
+        <v>14.96959865527901</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.98707850890672</v>
+        <v>20.63597767992542</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.05684251062538</v>
+        <v>16.7673138121947</v>
       </c>
       <c r="C18">
-        <v>5.959615574465095</v>
+        <v>9.412641030532434</v>
       </c>
       <c r="D18">
-        <v>6.366605941270051</v>
+        <v>8.546062227345196</v>
       </c>
       <c r="E18">
-        <v>19.22683031224161</v>
+        <v>35.64804602596436</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.64053220684624</v>
+        <v>2.065384163429623</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.03155857368751</v>
+        <v>14.79535960731516</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.98131558490399</v>
+        <v>20.5197910503569</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.03091582234516</v>
+        <v>16.69398178878192</v>
       </c>
       <c r="C19">
-        <v>5.943506002067909</v>
+        <v>9.379401296808766</v>
       </c>
       <c r="D19">
-        <v>6.355674127485137</v>
+        <v>8.507068137150313</v>
       </c>
       <c r="E19">
-        <v>19.14448610597393</v>
+        <v>35.47408019366307</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.640724087702826</v>
+        <v>2.065994195732304</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.01310208736873</v>
+        <v>14.73599237799957</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.97946952040224</v>
+        <v>20.48078686406748</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.14725482091696</v>
+        <v>17.02200446343925</v>
       </c>
       <c r="C20">
-        <v>6.015593266535117</v>
+        <v>9.528276051441228</v>
       </c>
       <c r="D20">
-        <v>6.404833486952059</v>
+        <v>8.681528318467208</v>
       </c>
       <c r="E20">
-        <v>19.51236001781804</v>
+        <v>36.25365462269357</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.639865656591749</v>
+        <v>2.063252762934038</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.09602229312119</v>
+        <v>15.00166971397934</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.9881950503637</v>
+        <v>20.65764095413182</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.53191802614811</v>
+        <v>18.08993118159949</v>
       </c>
       <c r="C21">
-        <v>6.250570019721767</v>
+        <v>10.01619971201816</v>
       </c>
       <c r="D21">
-        <v>6.569217967787823</v>
+        <v>9.250147229243733</v>
       </c>
       <c r="E21">
-        <v>20.70153573843455</v>
+        <v>38.81788201379621</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.637069615411999</v>
+        <v>2.054098321923084</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.37196807229535</v>
+        <v>15.86865649842681</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.02482702693205</v>
+        <v>21.27562385436464</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.77825308749305</v>
+        <v>18.7629935492377</v>
       </c>
       <c r="C22">
-        <v>6.398651290381391</v>
+        <v>10.32610794284797</v>
       </c>
       <c r="D22">
-        <v>6.675867052014972</v>
+        <v>9.609032630634793</v>
       </c>
       <c r="E22">
-        <v>21.44400035218508</v>
+        <v>40.45607450813735</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.635307620040344</v>
+        <v>2.048144742308481</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.55001675335283</v>
+        <v>16.41654393940559</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.05421724488147</v>
+        <v>21.6978667656178</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.64726899758995</v>
+        <v>18.40600512943884</v>
       </c>
       <c r="C23">
-        <v>6.320125973424819</v>
+        <v>10.16151255554222</v>
       </c>
       <c r="D23">
-        <v>6.619030875095266</v>
+        <v>9.418631983890187</v>
       </c>
       <c r="E23">
-        <v>21.05089979473863</v>
+        <v>39.58495905813906</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.636242069394264</v>
+        <v>2.051320454002834</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.4552188656519</v>
+        <v>16.12581382202171</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.03803289864601</v>
+        <v>21.47078466445457</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.14088828867717</v>
+        <v>17.00412105280538</v>
       </c>
       <c r="C24">
-        <v>6.011661479697771</v>
+        <v>9.520147092593859</v>
       </c>
       <c r="D24">
-        <v>6.402136313130895</v>
+        <v>8.672014616779883</v>
       </c>
       <c r="E24">
-        <v>19.49233475884239</v>
+        <v>36.21105913252254</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.639912464972636</v>
+        <v>2.063403066802014</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.09147785685943</v>
+        <v>14.98717736379205</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.98768836342697</v>
+        <v>20.6478410331693</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.57581947844026</v>
+        <v>15.38141695160619</v>
       </c>
       <c r="C25">
-        <v>5.656077057464421</v>
+        <v>8.788831136435727</v>
       </c>
       <c r="D25">
-        <v>6.166137226063226</v>
+        <v>7.809855400417957</v>
       </c>
       <c r="E25">
-        <v>17.68289412145244</v>
+        <v>32.38927825131924</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.644154463928588</v>
+        <v>2.07664101223493</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.691380926562539</v>
+        <v>13.6762303622028</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.95678632520319</v>
+        <v>19.83501836334579</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.08773934340895</v>
+        <v>11.42913007494945</v>
       </c>
       <c r="C2">
-        <v>8.21582749872467</v>
+        <v>9.061784463859231</v>
       </c>
       <c r="D2">
-        <v>7.123951202310604</v>
+        <v>7.022128865451579</v>
       </c>
       <c r="E2">
-        <v>29.39813309149968</v>
+        <v>14.97820031511519</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.08664210898961</v>
+        <v>48.02349868709933</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.996397244301907</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.285243266132878</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>14.52996506068883</v>
       </c>
       <c r="K2">
-        <v>12.63779128564659</v>
+        <v>23.42048204928761</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.21459485242372</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.29680585571137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.17629300453716</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.14764620637797</v>
+        <v>10.7049832047714</v>
       </c>
       <c r="C3">
-        <v>7.806045349700039</v>
+        <v>8.443098932822044</v>
       </c>
       <c r="D3">
-        <v>6.626205239831735</v>
+        <v>6.53676824609534</v>
       </c>
       <c r="E3">
-        <v>27.25177717282358</v>
+        <v>14.00939491732653</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.093612141315752</v>
+        <v>46.04856615188916</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.247639004706878</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.505455036362143</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>14.20347736731672</v>
       </c>
       <c r="K3">
-        <v>11.88778488021096</v>
+        <v>22.83140802102081</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.54533125282907</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.96764715237675</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.34742153559993</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.53868896432084</v>
+        <v>10.23400822815573</v>
       </c>
       <c r="C4">
-        <v>7.544010552371422</v>
+        <v>8.046570679646022</v>
       </c>
       <c r="D4">
-        <v>6.304040955377708</v>
+        <v>6.242737652274518</v>
       </c>
       <c r="E4">
-        <v>25.87253581840276</v>
+        <v>13.38119867247692</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.09799649988597</v>
+        <v>44.79150691837282</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.407094029535128</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.645713422260046</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>13.99952374122233</v>
       </c>
       <c r="K4">
-        <v>11.40441681470404</v>
+        <v>22.45968027823996</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.11310899211149</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.78240433531396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.81324294342371</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.28248998080954</v>
+        <v>10.03326405240725</v>
       </c>
       <c r="C5">
-        <v>7.434645923063645</v>
+        <v>7.889360140291464</v>
       </c>
       <c r="D5">
-        <v>6.186093676967126</v>
+        <v>6.13098960525054</v>
       </c>
       <c r="E5">
-        <v>25.29470227695742</v>
+        <v>13.11557816353951</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.099810846768104</v>
+        <v>44.22591250632609</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.473710508929317</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.706976425397245</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>13.90695730266449</v>
       </c>
       <c r="K5">
-        <v>11.20170370203802</v>
+        <v>22.28705775699889</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.932845141662833</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.71104803562154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.58995050928388</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.23946077176903</v>
+        <v>9.996859766122927</v>
       </c>
       <c r="C6">
-        <v>7.416331391140455</v>
+        <v>7.87351394840433</v>
       </c>
       <c r="D6">
-        <v>6.16686585971402</v>
+        <v>6.112258464485219</v>
       </c>
       <c r="E6">
-        <v>25.19779051157981</v>
+        <v>13.06948110340226</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.10011382752554</v>
+        <v>44.0791307915943</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.485226386195158</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.720823231121985</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>13.8809647458066</v>
       </c>
       <c r="K6">
-        <v>11.16769756476204</v>
+        <v>22.23531960088929</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.904063378372504</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.69944557902805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.55329952697365</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.53526642433091</v>
+        <v>10.22419602175248</v>
       </c>
       <c r="C7">
-        <v>7.542546021110634</v>
+        <v>8.072441836827222</v>
       </c>
       <c r="D7">
-        <v>6.302230778264439</v>
+        <v>6.241158268508159</v>
       </c>
       <c r="E7">
-        <v>25.86480729764848</v>
+        <v>13.37368763262482</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.098020854987434</v>
+        <v>44.64327903931748</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.408994854630704</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.656100633903434</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>13.969627265887</v>
       </c>
       <c r="K7">
-        <v>11.40170615366917</v>
+        <v>22.39525122963274</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.11463635254877</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.78142541989628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.81239616622628</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.77014161426015</v>
+        <v>11.17614050346045</v>
       </c>
       <c r="C8">
-        <v>8.076717491934323</v>
+        <v>8.885850998897071</v>
       </c>
       <c r="D8">
-        <v>6.955735264097962</v>
+        <v>6.858064844285075</v>
       </c>
       <c r="E8">
-        <v>28.67058891101664</v>
+        <v>14.64616855858826</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.089024482452408</v>
+        <v>47.17524056991437</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.083248940347469</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.372503784066783</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>14.38136215014028</v>
       </c>
       <c r="K8">
-        <v>12.38393550722912</v>
+        <v>23.13990551555914</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.99311132072181</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.1797494045266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>13.89839321764105</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.943149832189</v>
+        <v>12.84608251889251</v>
       </c>
       <c r="C9">
-        <v>9.040525995440577</v>
+        <v>10.30630264874431</v>
       </c>
       <c r="D9">
-        <v>8.108070181489762</v>
+        <v>7.978008095600946</v>
       </c>
       <c r="E9">
-        <v>33.70292424557785</v>
+        <v>16.88494594670442</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.072147157715011</v>
+        <v>52.00157427286154</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.636539343857245</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.839600643759064</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>15.20739008200824</v>
       </c>
       <c r="K9">
-        <v>14.12908488856793</v>
+        <v>24.62133888128268</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.54018372466629</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.09919274129681</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>15.82181974092839</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.39313122279328</v>
+        <v>13.98289502387302</v>
       </c>
       <c r="C10">
-        <v>9.697290233874064</v>
+        <v>11.25832586763713</v>
       </c>
       <c r="D10">
-        <v>8.87902358306539</v>
+        <v>8.721903453687599</v>
       </c>
       <c r="E10">
-        <v>37.14012493679642</v>
+        <v>17.81025513960345</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.060111450149888</v>
+        <v>54.64708080629588</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.022731049496866</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.486595484060423</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>15.65025579360043</v>
       </c>
       <c r="K10">
-        <v>15.30262340034053</v>
+        <v>25.38018683031999</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.59010663156234</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.86511172064319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>16.84122284386459</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.02219439548512</v>
+        <v>14.795537119134</v>
       </c>
       <c r="C11">
-        <v>9.985110283324056</v>
+        <v>11.49419105938783</v>
       </c>
       <c r="D11">
-        <v>9.214051247417105</v>
+        <v>9.035235721563922</v>
       </c>
       <c r="E11">
-        <v>38.65399259650937</v>
+        <v>13.49776836949995</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.054689529788785</v>
+        <v>50.54959902842671</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.849867520376622</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.577437285417062</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>14.70275597501393</v>
       </c>
       <c r="K11">
-        <v>15.81357763616574</v>
+        <v>23.55180259883218</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.17925465045124</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.234523446933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.98511961374163</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.25612657111573</v>
+        <v>15.26710993864042</v>
       </c>
       <c r="C12">
-        <v>10.09255730476362</v>
+        <v>11.4693655910079</v>
       </c>
       <c r="D12">
-        <v>9.3387275094536</v>
+        <v>9.148600002960345</v>
       </c>
       <c r="E12">
-        <v>39.220736871651</v>
+        <v>9.862331869741926</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.052641631830681</v>
+        <v>46.69298881211307</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.100377957023549</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.584810893683321</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.85161235768448</v>
       </c>
       <c r="K12">
-        <v>16.00384274373697</v>
+        <v>21.94704734144183</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.46434008316266</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.37754917479664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.19566702931181</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.20593357102435</v>
+        <v>15.51106002659703</v>
       </c>
       <c r="C13">
-        <v>10.06948474010662</v>
+        <v>11.27348174782872</v>
       </c>
       <c r="D13">
-        <v>9.311972639721773</v>
+        <v>9.118324452448233</v>
       </c>
       <c r="E13">
-        <v>39.09895768440078</v>
+        <v>6.754377948277837</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.05308249004448</v>
+        <v>42.51667334807399</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.454849392824745</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.532576526082726</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.9747746430981</v>
       </c>
       <c r="K13">
-        <v>15.96300778901661</v>
+        <v>20.31700338319552</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.54583948277013</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.34660442254189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.32253252884155</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.04152524459508</v>
+        <v>15.58150898730458</v>
       </c>
       <c r="C14">
-        <v>9.993980748358181</v>
+        <v>11.06342920043712</v>
       </c>
       <c r="D14">
-        <v>9.224351974679092</v>
+        <v>9.031960167639145</v>
       </c>
       <c r="E14">
-        <v>38.7007458734557</v>
+        <v>5.412104828267113</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.054520957100614</v>
+        <v>39.38192399767857</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.491695326836291</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.533073375081572</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>12.34378445941249</v>
       </c>
       <c r="K14">
-        <v>15.82929498670309</v>
+        <v>19.15521035176416</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.51373874181582</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.24622664299925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.08151432519424</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.94026645644613</v>
+        <v>15.54736456118281</v>
       </c>
       <c r="C15">
-        <v>9.947532365837041</v>
+        <v>10.98265576132069</v>
       </c>
       <c r="D15">
-        <v>9.170398376764698</v>
+        <v>8.979818394221418</v>
       </c>
       <c r="E15">
-        <v>38.45599992039103</v>
+        <v>5.2729864321891</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.055402670007278</v>
+        <v>38.50233304944356</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.731962477855269</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.567679886444098</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>12.175722773864</v>
       </c>
       <c r="K15">
-        <v>15.7469747319884</v>
+        <v>18.84717817778643</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.4628886449578</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.18515474090727</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.762246003716173</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.35141517654603</v>
+        <v>15.05265234922907</v>
       </c>
       <c r="C16">
-        <v>9.678262534206869</v>
+        <v>10.63060357382432</v>
       </c>
       <c r="D16">
-        <v>8.856818490434788</v>
+        <v>8.680051029351626</v>
       </c>
       <c r="E16">
-        <v>37.04024119989602</v>
+        <v>5.152713838050444</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.060466658137793</v>
+        <v>37.92655107032848</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.530141013826267</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.7121563322939</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>12.12796988492548</v>
       </c>
       <c r="K16">
-        <v>15.2687763100957</v>
+        <v>18.78071287215183</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.02657302957293</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.84140204362377</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.570747008304908</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.9824276120674</v>
+        <v>14.62357059758905</v>
       </c>
       <c r="C17">
-        <v>9.510288186175323</v>
+        <v>10.47338095872077</v>
       </c>
       <c r="D17">
-        <v>8.660474400698234</v>
+        <v>8.493235182408846</v>
       </c>
       <c r="E17">
-        <v>36.15940343722924</v>
+        <v>5.550479668793938</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.063585261618322</v>
+        <v>39.20054406623839</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.793741465368496</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.789960070278655</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>12.42828966405804</v>
       </c>
       <c r="K17">
-        <v>14.96959865527901</v>
+        <v>19.3471637336059</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.70189852274266</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.63597767992542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.09459333277137</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.7673138121947</v>
+        <v>14.21585229091565</v>
       </c>
       <c r="C18">
-        <v>9.412641030532434</v>
+        <v>10.45369285197337</v>
       </c>
       <c r="D18">
-        <v>8.546062227345196</v>
+        <v>8.386547310324854</v>
       </c>
       <c r="E18">
-        <v>35.64804602596436</v>
+        <v>7.581171901024753</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.065384163429623</v>
+        <v>42.3254210000859</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.528371005021929</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.803610272462961</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>13.09142864302079</v>
       </c>
       <c r="K18">
-        <v>14.79535960731516</v>
+        <v>20.59105178279558</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.4413345265642</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.5197910503569</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.42380873472267</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.69398178878192</v>
+        <v>13.85503576930532</v>
       </c>
       <c r="C19">
-        <v>9.379401296808766</v>
+        <v>10.59044754197141</v>
       </c>
       <c r="D19">
-        <v>8.507068137150313</v>
+        <v>8.353848180306095</v>
       </c>
       <c r="E19">
-        <v>35.47408019366307</v>
+        <v>11.23317027301779</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.065994195732304</v>
+        <v>46.47933465453475</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.998026943723588</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.779800460949672</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>13.96476775272755</v>
       </c>
       <c r="K19">
-        <v>14.73599237799957</v>
+        <v>22.22462206427815</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.26578200040545</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.48078686406748</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.36371178768934</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.02200446343925</v>
+        <v>13.67737517407196</v>
       </c>
       <c r="C20">
-        <v>9.528276051441228</v>
+        <v>11.07798261158591</v>
       </c>
       <c r="D20">
-        <v>8.681528318467208</v>
+        <v>8.531234605949663</v>
       </c>
       <c r="E20">
-        <v>36.25365462269357</v>
+        <v>17.53675660347616</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.063252762934038</v>
+        <v>53.57350718600316</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.917532417411584</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.613320837765853</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>15.4496367468975</v>
       </c>
       <c r="K20">
-        <v>15.00166971397934</v>
+        <v>25.00152133701258</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.33179697823932</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.65764095413182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>16.57257511666418</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.08993118159949</v>
+        <v>14.45550936178252</v>
       </c>
       <c r="C21">
-        <v>10.01619971201816</v>
+        <v>11.80606985387369</v>
       </c>
       <c r="D21">
-        <v>9.250147229243733</v>
+        <v>9.079697863923736</v>
       </c>
       <c r="E21">
-        <v>38.81788201379621</v>
+        <v>19.07466833351364</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.054098321923084</v>
+        <v>56.53557086335487</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.24355544534151</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.681322186312784</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>16.00124567039498</v>
       </c>
       <c r="K21">
-        <v>15.86865649842681</v>
+        <v>25.98331690672306</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.07977995245239</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.27562385436464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17.73279249681899</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.7629935492377</v>
+        <v>14.96830137784558</v>
       </c>
       <c r="C22">
-        <v>10.32610794284797</v>
+        <v>12.23128989793435</v>
       </c>
       <c r="D22">
-        <v>9.609032630634793</v>
+        <v>9.424367784241198</v>
       </c>
       <c r="E22">
-        <v>40.45607450813735</v>
+        <v>19.76556187667862</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.048144742308481</v>
+        <v>58.25749813606428</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.442128355844663</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.851359179316622</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>16.3222527522401</v>
       </c>
       <c r="K22">
-        <v>16.41654393940559</v>
+        <v>26.55574465835039</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.55429941036939</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.6978667656178</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>18.32713846621143</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.40600512943884</v>
+        <v>14.70290000176768</v>
       </c>
       <c r="C23">
-        <v>10.16151255554222</v>
+        <v>11.982302247358</v>
       </c>
       <c r="D23">
-        <v>9.418631983890187</v>
+        <v>9.241814090665059</v>
       </c>
       <c r="E23">
-        <v>39.58495905813906</v>
+        <v>19.40291132181479</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.051320454002834</v>
+        <v>57.47466717628426</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.3374605555255</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.756715666842925</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>16.18060015421344</v>
       </c>
       <c r="K23">
-        <v>16.12581382202171</v>
+        <v>26.31421885917894</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.29930322561434</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.47078466445457</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>18.01022909225644</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.00412105280538</v>
+        <v>13.64361730740496</v>
       </c>
       <c r="C24">
-        <v>9.520147092593859</v>
+        <v>11.04790681539982</v>
       </c>
       <c r="D24">
-        <v>8.672014616779883</v>
+        <v>8.523086338120363</v>
       </c>
       <c r="E24">
-        <v>36.21105913252254</v>
+        <v>17.96845588798483</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.063403066802014</v>
+        <v>54.21128718342448</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.932663613461842</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.589218702835793</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>15.58981202407909</v>
       </c>
       <c r="K24">
-        <v>14.98717736379205</v>
+        <v>25.27920700708871</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.30187946646423</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.6478410331693</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>16.76669280898034</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.38141695160619</v>
+        <v>12.40558695166622</v>
       </c>
       <c r="C25">
-        <v>8.788831136435727</v>
+        <v>9.977277488474261</v>
       </c>
       <c r="D25">
-        <v>7.809855400417957</v>
+        <v>7.688619719569764</v>
       </c>
       <c r="E25">
-        <v>32.38927825131924</v>
+        <v>16.30106344862805</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.07664101223493</v>
+        <v>50.51349849387975</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.642751395721033</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.997936679162021</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>14.93948514184596</v>
       </c>
       <c r="K25">
-        <v>13.6762303622028</v>
+        <v>24.12661570866562</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.14579848643227</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.83501836334579</v>
+        <v>15.32666181911504</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.42913007494945</v>
+        <v>11.31608249926404</v>
       </c>
       <c r="C2">
-        <v>9.061784463859231</v>
+        <v>10.03773902922096</v>
       </c>
       <c r="D2">
-        <v>7.022128865451579</v>
+        <v>7.030420678397091</v>
       </c>
       <c r="E2">
-        <v>14.97820031511519</v>
+        <v>14.95726166347331</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>48.02349868709933</v>
+        <v>41.53037215183319</v>
       </c>
       <c r="H2">
-        <v>1.996397244301907</v>
+        <v>1.928623567346237</v>
       </c>
       <c r="I2">
-        <v>3.285243266132878</v>
+        <v>3.111405937985122</v>
       </c>
       <c r="J2">
-        <v>14.52996506068883</v>
+        <v>13.38570852885967</v>
       </c>
       <c r="K2">
-        <v>23.42048204928761</v>
+        <v>20.44151216567795</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.49581136756375</v>
       </c>
       <c r="M2">
-        <v>11.21459485242372</v>
+        <v>13.92362339061271</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.17629300453716</v>
+        <v>11.44088401472789</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.31253838680474</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.7049832047714</v>
+        <v>10.64017685822457</v>
       </c>
       <c r="C3">
-        <v>8.443098932822044</v>
+        <v>9.30427530401289</v>
       </c>
       <c r="D3">
-        <v>6.53676824609534</v>
+        <v>6.546416137720831</v>
       </c>
       <c r="E3">
-        <v>14.00939491732653</v>
+        <v>14.02264026017855</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>46.04856615188916</v>
+        <v>40.21747233926384</v>
       </c>
       <c r="H3">
-        <v>2.247639004706878</v>
+        <v>2.163847730015545</v>
       </c>
       <c r="I3">
-        <v>3.505455036362143</v>
+        <v>3.298206804979485</v>
       </c>
       <c r="J3">
-        <v>14.20347736731672</v>
+        <v>13.15143087667403</v>
       </c>
       <c r="K3">
-        <v>22.83140802102081</v>
+        <v>20.14052440282552</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.41296137396004</v>
       </c>
       <c r="M3">
-        <v>10.54533125282907</v>
+        <v>13.55717904227138</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.34742153559993</v>
+        <v>10.76316839653012</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.47931098839878</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.23400822815573</v>
+        <v>10.20105231841328</v>
       </c>
       <c r="C4">
-        <v>8.046570679646022</v>
+        <v>8.83219764376279</v>
       </c>
       <c r="D4">
-        <v>6.242737652274518</v>
+        <v>6.250003267533966</v>
       </c>
       <c r="E4">
-        <v>13.38119867247692</v>
+        <v>13.4167853096863</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.79150691837282</v>
+        <v>39.38815006539521</v>
       </c>
       <c r="H4">
-        <v>2.407094029535128</v>
+        <v>2.313280140212147</v>
       </c>
       <c r="I4">
-        <v>3.645713422260046</v>
+        <v>3.417639533022544</v>
       </c>
       <c r="J4">
-        <v>13.99952374122233</v>
+        <v>13.0032324239344</v>
       </c>
       <c r="K4">
-        <v>22.45968027823996</v>
+        <v>19.94982641492808</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.35353447974726</v>
       </c>
       <c r="M4">
-        <v>10.11310899211149</v>
+        <v>13.34254732733117</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.81324294342371</v>
+        <v>10.32536606898071</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.94217967134371</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.03326405240725</v>
+        <v>10.01415215535008</v>
       </c>
       <c r="C5">
-        <v>7.889360140291464</v>
+        <v>8.642320216561327</v>
       </c>
       <c r="D5">
-        <v>6.13098960525054</v>
+        <v>6.138283105762357</v>
       </c>
       <c r="E5">
-        <v>13.11557816353951</v>
+        <v>13.16079446155146</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.22591250632609</v>
+        <v>39.00837908314512</v>
       </c>
       <c r="H5">
-        <v>2.473710508929317</v>
+        <v>2.375712626396158</v>
       </c>
       <c r="I5">
-        <v>3.706976425397245</v>
+        <v>3.470727545455501</v>
       </c>
       <c r="J5">
-        <v>13.90695730266449</v>
+        <v>12.93450327908448</v>
       </c>
       <c r="K5">
-        <v>22.28705775699889</v>
+        <v>19.85540886469835</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.31458718250515</v>
       </c>
       <c r="M5">
-        <v>9.932845141662833</v>
+        <v>13.24742846630553</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.58995050928388</v>
+        <v>10.14262521501086</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.71754075600792</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.996859766122927</v>
+        <v>9.980418557869923</v>
       </c>
       <c r="C6">
-        <v>7.87351394840433</v>
+        <v>8.620235813492243</v>
       </c>
       <c r="D6">
-        <v>6.112258464485219</v>
+        <v>6.119557901482517</v>
       </c>
       <c r="E6">
-        <v>13.06948110340226</v>
+        <v>13.11651300606105</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>44.0791307915943</v>
+        <v>38.90064209069411</v>
       </c>
       <c r="H6">
-        <v>2.485226386195158</v>
+        <v>2.386471320727336</v>
       </c>
       <c r="I6">
-        <v>3.720823231121985</v>
+        <v>3.483740561919686</v>
       </c>
       <c r="J6">
-        <v>13.8809647458066</v>
+        <v>12.91412609418759</v>
       </c>
       <c r="K6">
-        <v>22.23531960088929</v>
+        <v>19.82099849570611</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.29265082717919</v>
       </c>
       <c r="M6">
-        <v>9.904063378372504</v>
+        <v>13.21893766264666</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.55329952697365</v>
+        <v>10.11327807650654</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.68056112757909</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.22419602175248</v>
+        <v>10.19415135141682</v>
       </c>
       <c r="C7">
-        <v>8.072441836827222</v>
+        <v>8.843675113693061</v>
       </c>
       <c r="D7">
-        <v>6.241158268508159</v>
+        <v>6.24839167568577</v>
       </c>
       <c r="E7">
-        <v>13.37368763262482</v>
+        <v>13.41009972899641</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.64327903931748</v>
+        <v>39.30908817532372</v>
       </c>
       <c r="H7">
-        <v>2.408994854630704</v>
+        <v>2.315509530213603</v>
       </c>
       <c r="I7">
-        <v>3.656100633903434</v>
+        <v>3.430112988700387</v>
       </c>
       <c r="J7">
-        <v>13.969627265887</v>
+        <v>12.9169651687401</v>
       </c>
       <c r="K7">
-        <v>22.39525122963274</v>
+        <v>19.87346786386757</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.29198566899199</v>
       </c>
       <c r="M7">
-        <v>10.11463635254877</v>
+        <v>13.2885238058952</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.81239616622628</v>
+        <v>10.32396915964332</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.93990365237825</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.17614050346045</v>
+        <v>11.08608708775854</v>
       </c>
       <c r="C8">
-        <v>8.885850998897071</v>
+        <v>9.784322616099752</v>
       </c>
       <c r="D8">
-        <v>6.858064844285075</v>
+        <v>6.866663007965583</v>
       </c>
       <c r="E8">
-        <v>14.64616855858826</v>
+        <v>14.63802123661498</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>47.17524056991437</v>
+        <v>41.07884777134057</v>
       </c>
       <c r="H8">
-        <v>2.083248940347469</v>
+        <v>2.011465782087551</v>
       </c>
       <c r="I8">
-        <v>3.372503784066783</v>
+        <v>3.191503986786635</v>
       </c>
       <c r="J8">
-        <v>14.38136215014028</v>
+        <v>13.07755594509148</v>
       </c>
       <c r="K8">
-        <v>23.13990551555914</v>
+        <v>20.19509881203577</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.3561481399494</v>
       </c>
       <c r="M8">
-        <v>10.99311132072181</v>
+        <v>13.68963596661973</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.89839321764105</v>
+        <v>11.20842158986456</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.02933325228593</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.84608251889251</v>
+        <v>12.64668706243003</v>
       </c>
       <c r="C9">
-        <v>10.30630264874431</v>
+        <v>11.46123997412558</v>
       </c>
       <c r="D9">
-        <v>7.978008095600946</v>
+        <v>7.982127139022177</v>
       </c>
       <c r="E9">
-        <v>16.88494594670442</v>
+        <v>16.79748567454519</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>52.00157427286154</v>
+        <v>44.38545650580384</v>
       </c>
       <c r="H9">
-        <v>1.636539343857245</v>
+        <v>1.667961021788153</v>
       </c>
       <c r="I9">
-        <v>2.839600643759064</v>
+        <v>2.739479760166584</v>
       </c>
       <c r="J9">
-        <v>15.20739008200824</v>
+        <v>13.62084356695754</v>
       </c>
       <c r="K9">
-        <v>24.62133888128268</v>
+        <v>20.95469409769008</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.5547991419914</v>
       </c>
       <c r="M9">
-        <v>12.54018372466629</v>
+        <v>14.67610651546144</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.82181974092839</v>
+        <v>12.77317181811577</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.96148698629158</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.98289502387302</v>
+        <v>13.72539747136305</v>
       </c>
       <c r="C10">
-        <v>11.25832586763713</v>
+        <v>12.50553866182511</v>
       </c>
       <c r="D10">
-        <v>8.721903453687599</v>
+        <v>8.721480797511765</v>
       </c>
       <c r="E10">
-        <v>17.81025513960345</v>
+        <v>17.67387732562048</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.64708080629588</v>
+        <v>46.38964441389455</v>
       </c>
       <c r="H10">
-        <v>2.022731049496866</v>
+        <v>2.025015512739848</v>
       </c>
       <c r="I10">
-        <v>2.486595484060423</v>
+        <v>2.533870822814889</v>
       </c>
       <c r="J10">
-        <v>15.65025579360043</v>
+        <v>13.56873858901587</v>
       </c>
       <c r="K10">
-        <v>25.38018683031999</v>
+        <v>21.15310514047637</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.42028954730522</v>
       </c>
       <c r="M10">
-        <v>13.59010663156234</v>
+        <v>15.17181355089658</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.84122284386459</v>
+        <v>13.81955572470535</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.97849147845845</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.795537119134</v>
+        <v>14.56986025260429</v>
       </c>
       <c r="C11">
-        <v>11.49419105938783</v>
+        <v>12.52608728940992</v>
       </c>
       <c r="D11">
-        <v>9.035235721563922</v>
+        <v>9.033529078850441</v>
       </c>
       <c r="E11">
-        <v>13.49776836949995</v>
+        <v>13.37053542865221</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>50.54959902842671</v>
+        <v>43.42362242091215</v>
       </c>
       <c r="H11">
-        <v>2.849867520376622</v>
+        <v>2.846436760088027</v>
       </c>
       <c r="I11">
-        <v>2.577437285417062</v>
+        <v>2.613951828486978</v>
       </c>
       <c r="J11">
-        <v>14.70275597501393</v>
+        <v>12.17048031603151</v>
       </c>
       <c r="K11">
-        <v>23.55180259883218</v>
+        <v>19.43391792739036</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.0573391548008</v>
       </c>
       <c r="M11">
-        <v>14.17925465045124</v>
+        <v>13.97084402247598</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.98511961374163</v>
+        <v>14.36854281037109</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.10014526311245</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.26710993864042</v>
+        <v>15.07428453569683</v>
       </c>
       <c r="C12">
-        <v>11.4693655910079</v>
+        <v>12.33312820610446</v>
       </c>
       <c r="D12">
-        <v>9.148600002960345</v>
+        <v>9.146959763659494</v>
       </c>
       <c r="E12">
-        <v>9.862331869741926</v>
+        <v>9.75224292646568</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>46.69298881211307</v>
+        <v>40.4796770451423</v>
       </c>
       <c r="H12">
-        <v>4.100377957023549</v>
+        <v>4.098256946264843</v>
       </c>
       <c r="I12">
-        <v>2.584810893683321</v>
+        <v>2.621210742807027</v>
       </c>
       <c r="J12">
-        <v>13.85161235768448</v>
+        <v>11.27121906268056</v>
       </c>
       <c r="K12">
-        <v>21.94704734144183</v>
+        <v>18.11600691690905</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.08498636144198</v>
       </c>
       <c r="M12">
-        <v>14.46434008316266</v>
+        <v>12.96819035511298</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.19566702931181</v>
+        <v>14.6261180746701</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.2956000394683</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.51106002659703</v>
+        <v>15.35067053062147</v>
       </c>
       <c r="C13">
-        <v>11.27348174782872</v>
+        <v>12.00892139629806</v>
       </c>
       <c r="D13">
-        <v>9.118324452448233</v>
+        <v>9.118003861822595</v>
       </c>
       <c r="E13">
-        <v>6.754377948277837</v>
+        <v>6.684811974550696</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>42.51667334807399</v>
+        <v>37.04659625550068</v>
       </c>
       <c r="H13">
-        <v>5.454849392824745</v>
+        <v>5.45422528195854</v>
       </c>
       <c r="I13">
-        <v>2.532576526082726</v>
+        <v>2.581080415211015</v>
       </c>
       <c r="J13">
-        <v>12.9747746430981</v>
+        <v>10.74205507688063</v>
       </c>
       <c r="K13">
-        <v>20.31700338319552</v>
+        <v>16.99147406296779</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.31143564997075</v>
       </c>
       <c r="M13">
-        <v>14.54583948277013</v>
+        <v>12.03758662487627</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.32253252884155</v>
+        <v>14.69169134053532</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.39400197049722</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.58150898730458</v>
+        <v>15.44391718515195</v>
       </c>
       <c r="C14">
-        <v>11.06342920043712</v>
+        <v>11.7232555485161</v>
       </c>
       <c r="D14">
-        <v>9.031960167639145</v>
+        <v>9.033069760220508</v>
       </c>
       <c r="E14">
-        <v>5.412104828267113</v>
+        <v>5.401142407122111</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>39.38192399767857</v>
+        <v>34.37638251662451</v>
       </c>
       <c r="H14">
-        <v>6.491695326836291</v>
+        <v>6.489295865559345</v>
       </c>
       <c r="I14">
-        <v>2.533073375081572</v>
+        <v>2.533850981192224</v>
       </c>
       <c r="J14">
-        <v>12.34378445941249</v>
+        <v>10.50775231259281</v>
       </c>
       <c r="K14">
-        <v>19.15521035176416</v>
+        <v>16.27789467619684</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.84387746437733</v>
       </c>
       <c r="M14">
-        <v>14.51373874181582</v>
+        <v>11.4108381209858</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.08151432519424</v>
+        <v>14.65292355739737</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.13040833935068</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.54736456118281</v>
+        <v>15.41574207131773</v>
       </c>
       <c r="C15">
-        <v>10.98265576132069</v>
+        <v>11.62979533472176</v>
       </c>
       <c r="D15">
-        <v>8.979818394221418</v>
+        <v>8.981537057100182</v>
       </c>
       <c r="E15">
-        <v>5.2729864321891</v>
+        <v>5.283873220163973</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>38.50233304944356</v>
+        <v>33.59307086418355</v>
       </c>
       <c r="H15">
-        <v>6.731962477855269</v>
+        <v>6.728801817226528</v>
       </c>
       <c r="I15">
-        <v>2.567679886444098</v>
+        <v>2.515165905924109</v>
       </c>
       <c r="J15">
-        <v>12.175722773864</v>
+        <v>10.50011287290999</v>
       </c>
       <c r="K15">
-        <v>18.84717817778643</v>
+        <v>16.12057492146619</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.74877881889159</v>
       </c>
       <c r="M15">
-        <v>14.4628886449578</v>
+        <v>11.25868518841311</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.762246003716173</v>
+        <v>14.60256496819104</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.807902488593362</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.05265234922907</v>
+        <v>14.92492138343398</v>
       </c>
       <c r="C16">
-        <v>10.63060357382432</v>
+        <v>11.3309513011488</v>
       </c>
       <c r="D16">
-        <v>8.680051029351626</v>
+        <v>8.684129482972105</v>
       </c>
       <c r="E16">
-        <v>5.152713838050444</v>
+        <v>5.207023012173931</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>37.92655107032848</v>
+        <v>32.8492460559242</v>
       </c>
       <c r="H16">
-        <v>6.530141013826267</v>
+        <v>6.522873595216343</v>
       </c>
       <c r="I16">
-        <v>2.7121563322939</v>
+        <v>2.632503291634062</v>
       </c>
       <c r="J16">
-        <v>12.12796988492548</v>
+        <v>10.98204069071565</v>
       </c>
       <c r="K16">
-        <v>18.78071287215183</v>
+        <v>16.37166660908548</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.99244711382932</v>
       </c>
       <c r="M16">
-        <v>14.02657302957293</v>
+        <v>11.34910611216948</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.570747008304908</v>
+        <v>14.18632473761323</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.616534432857666</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.62357059758905</v>
+        <v>14.48933961761573</v>
       </c>
       <c r="C17">
-        <v>10.47338095872077</v>
+        <v>11.24451052521263</v>
       </c>
       <c r="D17">
-        <v>8.493235182408846</v>
+        <v>8.498253565809026</v>
       </c>
       <c r="E17">
-        <v>5.550479668793938</v>
+        <v>5.593080450609902</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>39.20054406623839</v>
+        <v>33.79352941709178</v>
       </c>
       <c r="H17">
-        <v>5.793741465368496</v>
+        <v>5.783301010663768</v>
       </c>
       <c r="I17">
-        <v>2.789960070278655</v>
+        <v>2.697783446658771</v>
       </c>
       <c r="J17">
-        <v>12.42828966405804</v>
+        <v>11.43899120516268</v>
       </c>
       <c r="K17">
-        <v>19.3471637336059</v>
+        <v>16.92314312323332</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.42688860677576</v>
       </c>
       <c r="M17">
-        <v>13.70189852274266</v>
+        <v>11.72760721777043</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.09459333277137</v>
+        <v>13.87820338439682</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.14805576988433</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.21585229091565</v>
+        <v>14.06116728102182</v>
       </c>
       <c r="C18">
-        <v>10.45369285197337</v>
+        <v>11.33951574122961</v>
       </c>
       <c r="D18">
-        <v>8.386547310324854</v>
+        <v>8.39154111802457</v>
       </c>
       <c r="E18">
-        <v>7.581171901024753</v>
+        <v>7.570242563255897</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.3254210000859</v>
+        <v>36.29624173036353</v>
       </c>
       <c r="H18">
-        <v>4.528371005021929</v>
+        <v>4.514995398435613</v>
       </c>
       <c r="I18">
-        <v>2.803610272462961</v>
+        <v>2.707948227094336</v>
       </c>
       <c r="J18">
-        <v>13.09142864302079</v>
+        <v>12.04766534607489</v>
       </c>
       <c r="K18">
-        <v>20.59105178279558</v>
+        <v>17.89690131017166</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.15637994200142</v>
       </c>
       <c r="M18">
-        <v>13.4413345265642</v>
+        <v>12.46519498357215</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.42380873472267</v>
+        <v>13.63687531538866</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.5379672300693</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.85503576930532</v>
+        <v>13.66995615638125</v>
       </c>
       <c r="C19">
-        <v>10.59044754197141</v>
+        <v>11.62030654208768</v>
       </c>
       <c r="D19">
-        <v>8.353848180306095</v>
+        <v>8.358065187608824</v>
       </c>
       <c r="E19">
-        <v>11.23317027301779</v>
+        <v>11.17197872639677</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>46.47933465453475</v>
+        <v>39.63613261643903</v>
       </c>
       <c r="H19">
-        <v>2.998026943723588</v>
+        <v>2.981618720076758</v>
       </c>
       <c r="I19">
-        <v>2.779800460949672</v>
+        <v>2.692680880431934</v>
       </c>
       <c r="J19">
-        <v>13.96476775272755</v>
+        <v>12.74779108907102</v>
       </c>
       <c r="K19">
-        <v>22.22462206427815</v>
+        <v>19.10910908025783</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.05138419491048</v>
       </c>
       <c r="M19">
-        <v>13.26578200040545</v>
+        <v>13.40718707377546</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.36371178768934</v>
+        <v>13.48111924571843</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.48990404107436</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.67737517407196</v>
+        <v>13.43184693281339</v>
       </c>
       <c r="C20">
-        <v>11.07798261158591</v>
+        <v>12.32860647415085</v>
       </c>
       <c r="D20">
-        <v>8.531234605949663</v>
+        <v>8.532443793851673</v>
       </c>
       <c r="E20">
-        <v>17.53675660347616</v>
+        <v>17.41422841515724</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>53.57350718600316</v>
+        <v>45.38919017997742</v>
       </c>
       <c r="H20">
-        <v>1.917532417411584</v>
+        <v>1.929499689629218</v>
       </c>
       <c r="I20">
-        <v>2.613320837765853</v>
+        <v>2.561173929122263</v>
       </c>
       <c r="J20">
-        <v>15.4496367468975</v>
+        <v>13.70989050516939</v>
       </c>
       <c r="K20">
-        <v>25.00152133701258</v>
+        <v>21.03263275566339</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.40523558136907</v>
       </c>
       <c r="M20">
-        <v>13.33179697823932</v>
+        <v>14.98632792921245</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.57257511666418</v>
+        <v>13.56839301680408</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.71317385287507</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.45550936178252</v>
+        <v>14.18690850135189</v>
       </c>
       <c r="C21">
-        <v>11.80606985387369</v>
+        <v>12.98880572804911</v>
       </c>
       <c r="D21">
-        <v>9.079697863923736</v>
+        <v>9.075343379946203</v>
       </c>
       <c r="E21">
-        <v>19.07466833351364</v>
+        <v>18.913524294117</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>56.53557086335487</v>
+        <v>48.4627820821599</v>
       </c>
       <c r="H21">
-        <v>2.24355544534151</v>
+        <v>2.22393590608483</v>
       </c>
       <c r="I21">
-        <v>2.681322186312784</v>
+        <v>2.694301710281851</v>
       </c>
       <c r="J21">
-        <v>16.00124567039498</v>
+        <v>12.82911037542634</v>
       </c>
       <c r="K21">
-        <v>25.98331690672306</v>
+        <v>21.0812810840055</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>16.22980113957609</v>
       </c>
       <c r="M21">
-        <v>14.07977995245239</v>
+        <v>15.29312687492037</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.73279249681899</v>
+        <v>14.28093185974293</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>17.85648038762365</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.96830137784558</v>
+        <v>14.68877184725045</v>
       </c>
       <c r="C22">
-        <v>12.23128989793435</v>
+        <v>13.3534582002947</v>
       </c>
       <c r="D22">
-        <v>9.424367784241198</v>
+        <v>9.416088204890521</v>
       </c>
       <c r="E22">
-        <v>19.76556187667862</v>
+        <v>19.58184759605546</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>58.25749813606428</v>
+        <v>50.37092663418935</v>
       </c>
       <c r="H22">
-        <v>2.442128355844663</v>
+        <v>2.402301870656375</v>
       </c>
       <c r="I22">
-        <v>2.851359179316622</v>
+        <v>2.826488505588287</v>
       </c>
       <c r="J22">
-        <v>16.3222527522401</v>
+        <v>12.18354211032954</v>
       </c>
       <c r="K22">
-        <v>26.55574465835039</v>
+        <v>21.04449962363968</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.06717451544817</v>
       </c>
       <c r="M22">
-        <v>14.55429941036939</v>
+        <v>15.44367080982282</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.32713846621143</v>
+        <v>14.72989726084344</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>18.43816480905652</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.70290000176768</v>
+        <v>14.42451402713026</v>
       </c>
       <c r="C23">
-        <v>11.982302247358</v>
+        <v>13.16067051632145</v>
       </c>
       <c r="D23">
-        <v>9.241814090665059</v>
+        <v>9.235791540713267</v>
       </c>
       <c r="E23">
-        <v>19.40291132181479</v>
+        <v>19.22992754531621</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>57.47466717628426</v>
+        <v>49.36244891176307</v>
       </c>
       <c r="H23">
-        <v>2.3374605555255</v>
+        <v>2.309114737141674</v>
       </c>
       <c r="I23">
-        <v>2.756715666842925</v>
+        <v>2.751517477267056</v>
       </c>
       <c r="J23">
-        <v>16.18060015421344</v>
+        <v>12.68271979163771</v>
       </c>
       <c r="K23">
-        <v>26.31421885917894</v>
+        <v>21.17175004017855</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>16.23082389637312</v>
       </c>
       <c r="M23">
-        <v>14.29930322561434</v>
+        <v>15.44814914646078</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.01022909225644</v>
+        <v>14.49352527924188</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.13050316873345</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.64361730740496</v>
+        <v>13.39371275896805</v>
       </c>
       <c r="C24">
-        <v>11.04790681539982</v>
+        <v>12.31634015214853</v>
       </c>
       <c r="D24">
-        <v>8.523086338120363</v>
+        <v>8.524161278436981</v>
       </c>
       <c r="E24">
-        <v>17.96845588798483</v>
+        <v>17.84274481258958</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.21128718342448</v>
+        <v>45.91067564430031</v>
       </c>
       <c r="H24">
-        <v>1.932663613461842</v>
+        <v>1.943911174312258</v>
       </c>
       <c r="I24">
-        <v>2.589218702835793</v>
+        <v>2.534559416841076</v>
       </c>
       <c r="J24">
-        <v>15.58981202407909</v>
+        <v>13.83206982242638</v>
       </c>
       <c r="K24">
-        <v>25.27920700708871</v>
+        <v>21.25270762315966</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.57071142582409</v>
       </c>
       <c r="M24">
-        <v>13.30187946646423</v>
+        <v>15.15342795951041</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.76669280898034</v>
+        <v>13.54086951435999</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.90887813445475</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.40558695166622</v>
+        <v>12.23328438398357</v>
       </c>
       <c r="C25">
-        <v>9.977277488474261</v>
+        <v>11.07823845810879</v>
       </c>
       <c r="D25">
-        <v>7.688619719569764</v>
+        <v>7.694263938804459</v>
       </c>
       <c r="E25">
-        <v>16.30106344862805</v>
+        <v>16.23482124977949</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50.51349849387975</v>
+        <v>43.26034558568976</v>
       </c>
       <c r="H25">
-        <v>1.642751395721033</v>
+        <v>1.598968976614193</v>
       </c>
       <c r="I25">
-        <v>2.997936679162021</v>
+        <v>2.877818757591895</v>
       </c>
       <c r="J25">
-        <v>14.93948514184596</v>
+        <v>13.51972255100718</v>
       </c>
       <c r="K25">
-        <v>24.12661570866562</v>
+        <v>20.70254352173791</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.46890941113373</v>
       </c>
       <c r="M25">
-        <v>12.14579848643227</v>
+        <v>14.36352071258061</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.32666181911504</v>
+        <v>12.37697969545609</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>15.46531084536878</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
